--- a/teaching/traditional_assets/database/data/mongolia/mongolia_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/mongolia/mongolia_precious_metals.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="tsx_stgo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,8 +592,23 @@
           <t>Precious Metals</t>
         </is>
       </c>
+      <c r="G2">
+        <v>-0.09974293059125965</v>
+      </c>
+      <c r="H2">
+        <v>-0.09974293059125965</v>
+      </c>
+      <c r="I2">
+        <v>0.3316195372750643</v>
+      </c>
+      <c r="J2">
+        <v>0.3316195372750643</v>
+      </c>
       <c r="K2">
-        <v>-7.37</v>
+        <v>-5.46</v>
+      </c>
+      <c r="L2">
+        <v>-0.1403598971722365</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +632,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.39</v>
+        <v>20.9</v>
       </c>
       <c r="V2">
-        <v>0.1076190476190476</v>
+        <v>0.1541297935103245</v>
       </c>
       <c r="W2">
-        <v>-0.3722222222222222</v>
+        <v>-0.4706896551724138</v>
       </c>
       <c r="X2">
-        <v>0.2375884801464705</v>
+        <v>0.1233091935562082</v>
       </c>
       <c r="Y2">
-        <v>-0.6098107023686927</v>
+        <v>-0.593998848728622</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.8585301258000441</v>
       </c>
       <c r="AA2">
-        <v>-0.1581975071907958</v>
+        <v>0.2847053630545133</v>
       </c>
       <c r="AB2">
-        <v>0.1465688487356412</v>
+        <v>0.1108257738932725</v>
       </c>
       <c r="AC2">
-        <v>-0.304766355926437</v>
+        <v>0.1738795891612409</v>
       </c>
       <c r="AD2">
-        <v>37.1</v>
+        <v>35</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>37.1</v>
+        <v>35</v>
       </c>
       <c r="AG2">
-        <v>33.71</v>
+        <v>14.1</v>
       </c>
       <c r="AH2">
-        <v>0.5408163265306123</v>
+        <v>0.205158264947245</v>
       </c>
       <c r="AI2">
-        <v>0.7633744855967078</v>
+        <v>0.4774897680763984</v>
       </c>
       <c r="AJ2">
-        <v>0.5169452537954301</v>
+        <v>0.09418837675350702</v>
       </c>
       <c r="AK2">
-        <v>0.745631497456315</v>
+        <v>0.2690839694656489</v>
       </c>
       <c r="AL2">
-        <v>0.803</v>
+        <v>2.99</v>
       </c>
       <c r="AM2">
-        <v>0.803</v>
+        <v>2.99</v>
       </c>
       <c r="AN2">
-        <v>-7.745302713987474</v>
+        <v>2.215189873417721</v>
       </c>
       <c r="AO2">
-        <v>-6.164383561643835</v>
+        <v>4.31438127090301</v>
       </c>
       <c r="AP2">
-        <v>-7.037578288100208</v>
+        <v>0.8924050632911393</v>
       </c>
       <c r="AQ2">
-        <v>-6.164383561643835</v>
+        <v>4.31438127090301</v>
       </c>
     </row>
     <row r="3">
@@ -700,8 +717,23 @@
           <t>Precious Metals</t>
         </is>
       </c>
+      <c r="G3">
+        <v>-0.09974293059125965</v>
+      </c>
+      <c r="H3">
+        <v>-0.09974293059125965</v>
+      </c>
+      <c r="I3">
+        <v>0.3316195372750643</v>
+      </c>
+      <c r="J3">
+        <v>0.3316195372750643</v>
+      </c>
       <c r="K3">
-        <v>-7.37</v>
+        <v>-5.46</v>
+      </c>
+      <c r="L3">
+        <v>-0.1403598971722365</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +757,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.39</v>
+        <v>20.9</v>
       </c>
       <c r="V3">
-        <v>0.1076190476190476</v>
+        <v>0.1541297935103245</v>
       </c>
       <c r="W3">
-        <v>-0.3722222222222222</v>
+        <v>-0.4706896551724138</v>
       </c>
       <c r="X3">
-        <v>0.2375884801464705</v>
+        <v>0.1233091935562082</v>
       </c>
       <c r="Y3">
-        <v>-0.6098107023686927</v>
+        <v>-0.593998848728622</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.8585301258000441</v>
       </c>
       <c r="AA3">
-        <v>-0.1581975071907958</v>
+        <v>0.2847053630545133</v>
       </c>
       <c r="AB3">
-        <v>0.1465688487356412</v>
+        <v>0.1108257738932725</v>
       </c>
       <c r="AC3">
-        <v>-0.304766355926437</v>
+        <v>0.1738795891612409</v>
       </c>
       <c r="AD3">
-        <v>37.1</v>
+        <v>35</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>37.1</v>
+        <v>35</v>
       </c>
       <c r="AG3">
-        <v>33.71</v>
+        <v>14.1</v>
       </c>
       <c r="AH3">
-        <v>0.5408163265306123</v>
+        <v>0.205158264947245</v>
       </c>
       <c r="AI3">
-        <v>0.7633744855967078</v>
+        <v>0.4774897680763984</v>
       </c>
       <c r="AJ3">
-        <v>0.5169452537954301</v>
+        <v>0.09418837675350702</v>
       </c>
       <c r="AK3">
-        <v>0.745631497456315</v>
+        <v>0.2690839694656489</v>
       </c>
       <c r="AL3">
-        <v>0.803</v>
+        <v>2.99</v>
       </c>
       <c r="AM3">
-        <v>0.803</v>
+        <v>2.99</v>
       </c>
       <c r="AN3">
-        <v>-7.745302713987474</v>
+        <v>2.215189873417721</v>
       </c>
       <c r="AO3">
-        <v>-6.164383561643835</v>
+        <v>4.31438127090301</v>
       </c>
       <c r="AP3">
-        <v>-7.037578288100208</v>
+        <v>0.8924050632911393</v>
       </c>
       <c r="AQ3">
-        <v>-6.164383561643835</v>
+        <v>4.31438127090301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Steppe Gold Ltd. (TSX:STGO)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TSX:STGO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Precious Metals</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.205158264947245</v>
+      </c>
+      <c r="F2">
+        <v>0.72</v>
+      </c>
+      <c r="G2">
+        <v>135.6</v>
+      </c>
+      <c r="H2">
+        <v>79.3617419718222</v>
+      </c>
+      <c r="I2">
+        <v>149.7</v>
+      </c>
+      <c r="J2">
+        <v>181.293741971822</v>
+      </c>
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>122.832</v>
+      </c>
+      <c r="M2">
+        <v>0.110825773893272</v>
+      </c>
+      <c r="N2">
+        <v>0.09313305560643741</v>
+      </c>
+      <c r="O2">
+        <v>0.0624614394277273</v>
+      </c>
+      <c r="P2">
+        <v>0.01695</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Baa2/BBB</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.123309193556208</v>
+      </c>
+      <c r="T2">
+        <v>0.289032341451562</v>
+      </c>
+      <c r="U2">
+        <v>1.03460586083171</v>
+      </c>
+      <c r="V2">
+        <v>2.53850335137472</v>
+      </c>
+      <c r="W2">
+        <v>4.55330887226643</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>135.6</v>
+      </c>
+      <c r="AB2">
+        <v>0.1101957739390316</v>
+      </c>
+      <c r="AC2">
+        <v>0.0832819192369697</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>15.8</v>
+      </c>
+      <c r="AH2">
+        <v>3.16</v>
+      </c>
+      <c r="AI2">
+        <v>4.680000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>35</v>
+      </c>
+      <c r="AK2">
+        <v>35</v>
+      </c>
+      <c r="AL2">
+        <v>2.99</v>
+      </c>
+      <c r="AM2">
+        <v>35</v>
+      </c>
+      <c r="AN2">
+        <v>20.9</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1048183604956554</v>
+      </c>
+      <c r="C2">
+        <v>180.0150462901232</v>
+      </c>
+      <c r="D2">
+        <v>159.1150462901232</v>
+      </c>
+      <c r="E2">
+        <v>-35</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>20.9</v>
+      </c>
+      <c r="H2">
+        <v>135.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15.8</v>
+      </c>
+      <c r="K2">
+        <v>3.16</v>
+      </c>
+      <c r="L2">
+        <v>12.64</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.64</v>
+      </c>
+      <c r="O2">
+        <v>3.16</v>
+      </c>
+      <c r="P2">
+        <v>9.48</v>
+      </c>
+      <c r="Q2">
+        <v>12.64</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1048183604956554</v>
+      </c>
+      <c r="T2">
+        <v>0.8668060224206345</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.25</v>
+      </c>
+      <c r="W2">
+        <v>0.01215</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1046080645944163</v>
+      </c>
+      <c r="C3">
+        <v>178.6601313971673</v>
+      </c>
+      <c r="D3">
+        <v>159.4661313971673</v>
+      </c>
+      <c r="E3">
+        <v>-33.294</v>
+      </c>
+      <c r="F3">
+        <v>1.706</v>
+      </c>
+      <c r="G3">
+        <v>20.9</v>
+      </c>
+      <c r="H3">
+        <v>135.6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>15.8</v>
+      </c>
+      <c r="K3">
+        <v>3.16</v>
+      </c>
+      <c r="L3">
+        <v>12.64</v>
+      </c>
+      <c r="M3">
+        <v>0.0276372</v>
+      </c>
+      <c r="N3">
+        <v>12.6123628</v>
+      </c>
+      <c r="O3">
+        <v>3.1530907</v>
+      </c>
+      <c r="P3">
+        <v>9.459272100000002</v>
+      </c>
+      <c r="Q3">
+        <v>12.6192721</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1055419844388043</v>
+      </c>
+      <c r="T3">
+        <v>0.8733727347117</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.25</v>
+      </c>
+      <c r="W3">
+        <v>0.01215</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>457.3545800587615</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1043977686931771</v>
+      </c>
+      <c r="C4">
+        <v>177.3067692590237</v>
+      </c>
+      <c r="D4">
+        <v>159.8187692590237</v>
+      </c>
+      <c r="E4">
+        <v>-31.588</v>
+      </c>
+      <c r="F4">
+        <v>3.412</v>
+      </c>
+      <c r="G4">
+        <v>20.9</v>
+      </c>
+      <c r="H4">
+        <v>135.6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>15.8</v>
+      </c>
+      <c r="K4">
+        <v>3.16</v>
+      </c>
+      <c r="L4">
+        <v>12.64</v>
+      </c>
+      <c r="M4">
+        <v>0.05527439999999999</v>
+      </c>
+      <c r="N4">
+        <v>12.5847256</v>
+      </c>
+      <c r="O4">
+        <v>3.1461814</v>
+      </c>
+      <c r="P4">
+        <v>9.438544200000001</v>
+      </c>
+      <c r="Q4">
+        <v>12.5985442</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1062803762175277</v>
+      </c>
+      <c r="T4">
+        <v>0.8800734615393178</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.25</v>
+      </c>
+      <c r="W4">
+        <v>0.01215</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>228.6772900293807</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.104187472791938</v>
+      </c>
+      <c r="C5">
+        <v>175.9549701996469</v>
+      </c>
+      <c r="D5">
+        <v>160.1729701996469</v>
+      </c>
+      <c r="E5">
+        <v>-29.882</v>
+      </c>
+      <c r="F5">
+        <v>5.117999999999999</v>
+      </c>
+      <c r="G5">
+        <v>20.9</v>
+      </c>
+      <c r="H5">
+        <v>135.6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>15.8</v>
+      </c>
+      <c r="K5">
+        <v>3.16</v>
+      </c>
+      <c r="L5">
+        <v>12.64</v>
+      </c>
+      <c r="M5">
+        <v>0.08291159999999999</v>
+      </c>
+      <c r="N5">
+        <v>12.5570884</v>
+      </c>
+      <c r="O5">
+        <v>3.1392721</v>
+      </c>
+      <c r="P5">
+        <v>9.417816300000002</v>
+      </c>
+      <c r="Q5">
+        <v>12.5778163</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1070339925690082</v>
+      </c>
+      <c r="T5">
+        <v>0.8869123476829688</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.25</v>
+      </c>
+      <c r="W5">
+        <v>0.01215</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>152.4515266862538</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1039771768906988</v>
+      </c>
+      <c r="C6">
+        <v>174.6047446347166</v>
+      </c>
+      <c r="D6">
+        <v>160.5287446347166</v>
+      </c>
+      <c r="E6">
+        <v>-28.176</v>
+      </c>
+      <c r="F6">
+        <v>6.824</v>
+      </c>
+      <c r="G6">
+        <v>20.9</v>
+      </c>
+      <c r="H6">
+        <v>135.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>15.8</v>
+      </c>
+      <c r="K6">
+        <v>3.16</v>
+      </c>
+      <c r="L6">
+        <v>12.64</v>
+      </c>
+      <c r="M6">
+        <v>0.1105488</v>
+      </c>
+      <c r="N6">
+        <v>12.5294512</v>
+      </c>
+      <c r="O6">
+        <v>3.1323628</v>
+      </c>
+      <c r="P6">
+        <v>9.397088400000001</v>
+      </c>
+      <c r="Q6">
+        <v>12.5570884</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1078033092611446</v>
+      </c>
+      <c r="T6">
+        <v>0.8938937106212793</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.25</v>
+      </c>
+      <c r="W6">
+        <v>0.01215</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>114.3386450146904</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1037668809894597</v>
+      </c>
+      <c r="C7">
+        <v>173.2561030726597</v>
+      </c>
+      <c r="D7">
+        <v>160.8861030726597</v>
+      </c>
+      <c r="E7">
+        <v>-26.47</v>
+      </c>
+      <c r="F7">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="G7">
+        <v>20.9</v>
+      </c>
+      <c r="H7">
+        <v>135.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>15.8</v>
+      </c>
+      <c r="K7">
+        <v>3.16</v>
+      </c>
+      <c r="L7">
+        <v>12.64</v>
+      </c>
+      <c r="M7">
+        <v>0.138186</v>
+      </c>
+      <c r="N7">
+        <v>12.501814</v>
+      </c>
+      <c r="O7">
+        <v>3.1254535</v>
+      </c>
+      <c r="P7">
+        <v>9.376360500000001</v>
+      </c>
+      <c r="Q7">
+        <v>12.5363605</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1085888220941681</v>
+      </c>
+      <c r="T7">
+        <v>0.9010220496214491</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
+      </c>
+      <c r="W7">
+        <v>0.01215</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>91.47091601175231</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1035565850882206</v>
+      </c>
+      <c r="C8">
+        <v>171.9090561156842</v>
+      </c>
+      <c r="D8">
+        <v>161.2450561156842</v>
+      </c>
+      <c r="E8">
+        <v>-24.764</v>
+      </c>
+      <c r="F8">
+        <v>10.236</v>
+      </c>
+      <c r="G8">
+        <v>20.9</v>
+      </c>
+      <c r="H8">
+        <v>135.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>15.8</v>
+      </c>
+      <c r="K8">
+        <v>3.16</v>
+      </c>
+      <c r="L8">
+        <v>12.64</v>
+      </c>
+      <c r="M8">
+        <v>0.1658232</v>
+      </c>
+      <c r="N8">
+        <v>12.4741768</v>
+      </c>
+      <c r="O8">
+        <v>3.1185442</v>
+      </c>
+      <c r="P8">
+        <v>9.3556326</v>
+      </c>
+      <c r="Q8">
+        <v>12.5156326</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1093910479661921</v>
+      </c>
+      <c r="T8">
+        <v>0.9083020554088564</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.25</v>
+      </c>
+      <c r="W8">
+        <v>0.01215</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>76.22576334312691</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1033462891869814</v>
+      </c>
+      <c r="C9">
+        <v>170.5636144608283</v>
+      </c>
+      <c r="D9">
+        <v>161.6056144608283</v>
+      </c>
+      <c r="E9">
+        <v>-23.058</v>
+      </c>
+      <c r="F9">
+        <v>11.942</v>
+      </c>
+      <c r="G9">
+        <v>20.9</v>
+      </c>
+      <c r="H9">
+        <v>135.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>15.8</v>
+      </c>
+      <c r="K9">
+        <v>3.16</v>
+      </c>
+      <c r="L9">
+        <v>12.64</v>
+      </c>
+      <c r="M9">
+        <v>0.1934604</v>
+      </c>
+      <c r="N9">
+        <v>12.4465396</v>
+      </c>
+      <c r="O9">
+        <v>3.1116349</v>
+      </c>
+      <c r="P9">
+        <v>9.334904700000001</v>
+      </c>
+      <c r="Q9">
+        <v>12.4949047</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1102105260075069</v>
+      </c>
+      <c r="T9">
+        <v>0.915738620460509</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.25</v>
+      </c>
+      <c r="W9">
+        <v>0.01215</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>65.33636857982306</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1031359932857423</v>
+      </c>
+      <c r="C10">
+        <v>169.2197889010227</v>
+      </c>
+      <c r="D10">
+        <v>161.9677889010227</v>
+      </c>
+      <c r="E10">
+        <v>-21.352</v>
+      </c>
+      <c r="F10">
+        <v>13.648</v>
+      </c>
+      <c r="G10">
+        <v>20.9</v>
+      </c>
+      <c r="H10">
+        <v>135.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>15.8</v>
+      </c>
+      <c r="K10">
+        <v>3.16</v>
+      </c>
+      <c r="L10">
+        <v>12.64</v>
+      </c>
+      <c r="M10">
+        <v>0.2210976</v>
+      </c>
+      <c r="N10">
+        <v>12.4189024</v>
+      </c>
+      <c r="O10">
+        <v>3.1047256</v>
+      </c>
+      <c r="P10">
+        <v>9.3141768</v>
+      </c>
+      <c r="Q10">
+        <v>12.4741768</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1110478187888503</v>
+      </c>
+      <c r="T10">
+        <v>0.9233368499698064</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.25</v>
+      </c>
+      <c r="W10">
+        <v>0.01215</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>57.16932250734518</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1029256973845032</v>
+      </c>
+      <c r="C11">
+        <v>167.8775903261674</v>
+      </c>
+      <c r="D11">
+        <v>162.3315903261674</v>
+      </c>
+      <c r="E11">
+        <v>-19.646</v>
+      </c>
+      <c r="F11">
+        <v>15.354</v>
+      </c>
+      <c r="G11">
+        <v>20.9</v>
+      </c>
+      <c r="H11">
+        <v>135.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>15.8</v>
+      </c>
+      <c r="K11">
+        <v>3.16</v>
+      </c>
+      <c r="L11">
+        <v>12.64</v>
+      </c>
+      <c r="M11">
+        <v>0.2487348</v>
+      </c>
+      <c r="N11">
+        <v>12.3912652</v>
+      </c>
+      <c r="O11">
+        <v>3.0978163</v>
+      </c>
+      <c r="P11">
+        <v>9.293448900000001</v>
+      </c>
+      <c r="Q11">
+        <v>12.4534489</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1119035136093441</v>
+      </c>
+      <c r="T11">
+        <v>0.931102073534253</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.25</v>
+      </c>
+      <c r="W11">
+        <v>0.01215</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>50.81717556208461</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.102715401483264</v>
+      </c>
+      <c r="C12">
+        <v>166.5370297242237</v>
+      </c>
+      <c r="D12">
+        <v>162.6970297242237</v>
+      </c>
+      <c r="E12">
+        <v>-17.94</v>
+      </c>
+      <c r="F12">
+        <v>17.06</v>
+      </c>
+      <c r="G12">
+        <v>20.9</v>
+      </c>
+      <c r="H12">
+        <v>135.6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>15.8</v>
+      </c>
+      <c r="K12">
+        <v>3.16</v>
+      </c>
+      <c r="L12">
+        <v>12.64</v>
+      </c>
+      <c r="M12">
+        <v>0.276372</v>
+      </c>
+      <c r="N12">
+        <v>12.363628</v>
+      </c>
+      <c r="O12">
+        <v>3.090907</v>
+      </c>
+      <c r="P12">
+        <v>9.272721000000001</v>
+      </c>
+      <c r="Q12">
+        <v>12.432721</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1127782238702933</v>
+      </c>
+      <c r="T12">
+        <v>0.939039857622354</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.25</v>
+      </c>
+      <c r="W12">
+        <v>0.01215</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>45.73545800587615</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1025051055820249</v>
+      </c>
+      <c r="C13">
+        <v>165.1981181823197</v>
+      </c>
+      <c r="D13">
+        <v>163.0641181823197</v>
+      </c>
+      <c r="E13">
+        <v>-16.234</v>
+      </c>
+      <c r="F13">
+        <v>18.766</v>
+      </c>
+      <c r="G13">
+        <v>20.9</v>
+      </c>
+      <c r="H13">
+        <v>135.6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>15.8</v>
+      </c>
+      <c r="K13">
+        <v>3.16</v>
+      </c>
+      <c r="L13">
+        <v>12.64</v>
+      </c>
+      <c r="M13">
+        <v>0.3040092</v>
+      </c>
+      <c r="N13">
+        <v>12.3359908</v>
+      </c>
+      <c r="O13">
+        <v>3.0839977</v>
+      </c>
+      <c r="P13">
+        <v>9.2519931</v>
+      </c>
+      <c r="Q13">
+        <v>12.4119931</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.113672590541601</v>
+      </c>
+      <c r="T13">
+        <v>0.9471560188809743</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.25</v>
+      </c>
+      <c r="W13">
+        <v>0.01215</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>41.57768909625104</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1022948096807857</v>
+      </c>
+      <c r="C14">
+        <v>163.8608668878724</v>
+      </c>
+      <c r="D14">
+        <v>163.4328668878724</v>
+      </c>
+      <c r="E14">
+        <v>-14.528</v>
+      </c>
+      <c r="F14">
+        <v>20.472</v>
+      </c>
+      <c r="G14">
+        <v>20.9</v>
+      </c>
+      <c r="H14">
+        <v>135.6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>15.8</v>
+      </c>
+      <c r="K14">
+        <v>3.16</v>
+      </c>
+      <c r="L14">
+        <v>12.64</v>
+      </c>
+      <c r="M14">
+        <v>0.3316464</v>
+      </c>
+      <c r="N14">
+        <v>12.3083536</v>
+      </c>
+      <c r="O14">
+        <v>3.0770884</v>
+      </c>
+      <c r="P14">
+        <v>9.231265199999999</v>
+      </c>
+      <c r="Q14">
+        <v>12.3912652</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1145872837281656</v>
+      </c>
+      <c r="T14">
+        <v>0.9554566383500176</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.25</v>
+      </c>
+      <c r="W14">
+        <v>0.01215</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>38.11288167156346</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1020845137795466</v>
+      </c>
+      <c r="C15">
+        <v>162.5252871297238</v>
+      </c>
+      <c r="D15">
+        <v>163.8032871297238</v>
+      </c>
+      <c r="E15">
+        <v>-12.822</v>
+      </c>
+      <c r="F15">
+        <v>22.178</v>
+      </c>
+      <c r="G15">
+        <v>20.9</v>
+      </c>
+      <c r="H15">
+        <v>135.6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>15.8</v>
+      </c>
+      <c r="K15">
+        <v>3.16</v>
+      </c>
+      <c r="L15">
+        <v>12.64</v>
+      </c>
+      <c r="M15">
+        <v>0.3592836</v>
+      </c>
+      <c r="N15">
+        <v>12.2807164</v>
+      </c>
+      <c r="O15">
+        <v>3.0701791</v>
+      </c>
+      <c r="P15">
+        <v>9.2105373</v>
+      </c>
+      <c r="Q15">
+        <v>12.3705373</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1155230043443064</v>
+      </c>
+      <c r="T15">
+        <v>0.9639480766574298</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.25</v>
+      </c>
+      <c r="W15">
+        <v>0.01215</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>35.18112154298165</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1018742178783075</v>
+      </c>
+      <c r="C16">
+        <v>161.1913902992927</v>
+      </c>
+      <c r="D16">
+        <v>164.1753902992927</v>
+      </c>
+      <c r="E16">
+        <v>-11.116</v>
+      </c>
+      <c r="F16">
+        <v>23.884</v>
+      </c>
+      <c r="G16">
+        <v>20.9</v>
+      </c>
+      <c r="H16">
+        <v>135.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>15.8</v>
+      </c>
+      <c r="K16">
+        <v>3.16</v>
+      </c>
+      <c r="L16">
+        <v>12.64</v>
+      </c>
+      <c r="M16">
+        <v>0.3869208</v>
+      </c>
+      <c r="N16">
+        <v>12.2530792</v>
+      </c>
+      <c r="O16">
+        <v>3.0632698</v>
+      </c>
+      <c r="P16">
+        <v>9.1898094</v>
+      </c>
+      <c r="Q16">
+        <v>12.3498094</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1164804859050087</v>
+      </c>
+      <c r="T16">
+        <v>0.9726369902743166</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.25</v>
+      </c>
+      <c r="W16">
+        <v>0.01215</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>32.66818428991152</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1016639219770683</v>
+      </c>
+      <c r="C17">
+        <v>159.8591878917428</v>
+      </c>
+      <c r="D17">
+        <v>164.5491878917428</v>
+      </c>
+      <c r="E17">
+        <v>-9.41</v>
+      </c>
+      <c r="F17">
+        <v>25.59</v>
+      </c>
+      <c r="G17">
+        <v>20.9</v>
+      </c>
+      <c r="H17">
+        <v>135.6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>15.8</v>
+      </c>
+      <c r="K17">
+        <v>3.16</v>
+      </c>
+      <c r="L17">
+        <v>12.64</v>
+      </c>
+      <c r="M17">
+        <v>0.414558</v>
+      </c>
+      <c r="N17">
+        <v>12.225442</v>
+      </c>
+      <c r="O17">
+        <v>3.0563605</v>
+      </c>
+      <c r="P17">
+        <v>9.169081500000001</v>
+      </c>
+      <c r="Q17">
+        <v>12.3290815</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1174604964436098</v>
+      </c>
+      <c r="T17">
+        <v>0.9815303489174833</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.25</v>
+      </c>
+      <c r="W17">
+        <v>0.01215</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>30.49030533725076</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1014536260758292</v>
+      </c>
+      <c r="C18">
+        <v>158.5286915071664</v>
+      </c>
+      <c r="D18">
+        <v>164.9246915071664</v>
+      </c>
+      <c r="E18">
+        <v>-7.704000000000001</v>
+      </c>
+      <c r="F18">
+        <v>27.296</v>
+      </c>
+      <c r="G18">
+        <v>20.9</v>
+      </c>
+      <c r="H18">
+        <v>135.6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>15.8</v>
+      </c>
+      <c r="K18">
+        <v>3.16</v>
+      </c>
+      <c r="L18">
+        <v>12.64</v>
+      </c>
+      <c r="M18">
+        <v>0.4421952</v>
+      </c>
+      <c r="N18">
+        <v>12.1978048</v>
+      </c>
+      <c r="O18">
+        <v>3.0494512</v>
+      </c>
+      <c r="P18">
+        <v>9.1483536</v>
+      </c>
+      <c r="Q18">
+        <v>12.3083536</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1184638405664633</v>
+      </c>
+      <c r="T18">
+        <v>0.9906354541950109</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.25</v>
+      </c>
+      <c r="W18">
+        <v>0.01215</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>28.58466125367259</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1012433301745901</v>
+      </c>
+      <c r="C19">
+        <v>157.199912851784</v>
+      </c>
+      <c r="D19">
+        <v>165.301912851784</v>
+      </c>
+      <c r="E19">
+        <v>-5.997999999999998</v>
+      </c>
+      <c r="F19">
+        <v>29.002</v>
+      </c>
+      <c r="G19">
+        <v>20.9</v>
+      </c>
+      <c r="H19">
+        <v>135.6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>15.8</v>
+      </c>
+      <c r="K19">
+        <v>3.16</v>
+      </c>
+      <c r="L19">
+        <v>12.64</v>
+      </c>
+      <c r="M19">
+        <v>0.4698324</v>
+      </c>
+      <c r="N19">
+        <v>12.1701676</v>
+      </c>
+      <c r="O19">
+        <v>3.0425419</v>
+      </c>
+      <c r="P19">
+        <v>9.127625700000001</v>
+      </c>
+      <c r="Q19">
+        <v>12.2876257</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1194913616561326</v>
+      </c>
+      <c r="T19">
+        <v>0.9999599595997081</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.25</v>
+      </c>
+      <c r="W19">
+        <v>0.01215</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>26.90321059169185</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1010330342733509</v>
+      </c>
+      <c r="C20">
+        <v>155.8728637391615</v>
+      </c>
+      <c r="D20">
+        <v>165.6808637391615</v>
+      </c>
+      <c r="E20">
+        <v>-4.292000000000002</v>
+      </c>
+      <c r="F20">
+        <v>30.708</v>
+      </c>
+      <c r="G20">
+        <v>20.9</v>
+      </c>
+      <c r="H20">
+        <v>135.6</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>15.8</v>
+      </c>
+      <c r="K20">
+        <v>3.16</v>
+      </c>
+      <c r="L20">
+        <v>12.64</v>
+      </c>
+      <c r="M20">
+        <v>0.4974696</v>
+      </c>
+      <c r="N20">
+        <v>12.1425304</v>
+      </c>
+      <c r="O20">
+        <v>3.0356326</v>
+      </c>
+      <c r="P20">
+        <v>9.1068978</v>
+      </c>
+      <c r="Q20">
+        <v>12.2668978</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1205439442357938</v>
+      </c>
+      <c r="T20">
+        <v>1.009511891965495</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.25</v>
+      </c>
+      <c r="W20">
+        <v>0.01215</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>25.4085877810423</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1008227383721118</v>
+      </c>
+      <c r="C21">
+        <v>154.5475560914428</v>
+      </c>
+      <c r="D21">
+        <v>166.0615560914428</v>
+      </c>
+      <c r="E21">
+        <v>-2.585999999999999</v>
+      </c>
+      <c r="F21">
+        <v>32.414</v>
+      </c>
+      <c r="G21">
+        <v>20.9</v>
+      </c>
+      <c r="H21">
+        <v>135.6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>15.8</v>
+      </c>
+      <c r="K21">
+        <v>3.16</v>
+      </c>
+      <c r="L21">
+        <v>12.64</v>
+      </c>
+      <c r="M21">
+        <v>0.5251068</v>
+      </c>
+      <c r="N21">
+        <v>12.1148932</v>
+      </c>
+      <c r="O21">
+        <v>3.0287233</v>
+      </c>
+      <c r="P21">
+        <v>9.086169900000002</v>
+      </c>
+      <c r="Q21">
+        <v>12.2461699</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.12162251650878</v>
+      </c>
+      <c r="T21">
+        <v>1.019299674513154</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.25</v>
+      </c>
+      <c r="W21">
+        <v>0.01215</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>24.07129368730323</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1006124424708726</v>
+      </c>
+      <c r="C22">
+        <v>153.2240019406004</v>
+      </c>
+      <c r="D22">
+        <v>166.4440019406004</v>
+      </c>
+      <c r="E22">
+        <v>-0.8800000000000026</v>
+      </c>
+      <c r="F22">
+        <v>34.12</v>
+      </c>
+      <c r="G22">
+        <v>20.9</v>
+      </c>
+      <c r="H22">
+        <v>135.6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>15.8</v>
+      </c>
+      <c r="K22">
+        <v>3.16</v>
+      </c>
+      <c r="L22">
+        <v>12.64</v>
+      </c>
+      <c r="M22">
+        <v>0.5527439999999999</v>
+      </c>
+      <c r="N22">
+        <v>12.087256</v>
+      </c>
+      <c r="O22">
+        <v>3.021814</v>
+      </c>
+      <c r="P22">
+        <v>9.065442000000001</v>
+      </c>
+      <c r="Q22">
+        <v>12.225442</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1227280530885908</v>
+      </c>
+      <c r="T22">
+        <v>1.029332151624504</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.25</v>
+      </c>
+      <c r="W22">
+        <v>0.01215</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>22.86772900293807</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1004021465696335</v>
+      </c>
+      <c r="C23">
+        <v>151.9022134297029</v>
+      </c>
+      <c r="D23">
+        <v>166.8282134297029</v>
+      </c>
+      <c r="E23">
+        <v>0.8260000000000005</v>
+      </c>
+      <c r="F23">
+        <v>35.826</v>
+      </c>
+      <c r="G23">
+        <v>20.9</v>
+      </c>
+      <c r="H23">
+        <v>135.6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>15.8</v>
+      </c>
+      <c r="K23">
+        <v>3.16</v>
+      </c>
+      <c r="L23">
+        <v>12.64</v>
+      </c>
+      <c r="M23">
+        <v>0.5803811999999999</v>
+      </c>
+      <c r="N23">
+        <v>12.0596188</v>
+      </c>
+      <c r="O23">
+        <v>3.0149047</v>
+      </c>
+      <c r="P23">
+        <v>9.0447141</v>
+      </c>
+      <c r="Q23">
+        <v>12.2047141</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1238615779362449</v>
+      </c>
+      <c r="T23">
+        <v>1.039618615498166</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.25</v>
+      </c>
+      <c r="W23">
+        <v>0.01215</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>21.77878952660769</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1001918506683944</v>
+      </c>
+      <c r="C24">
+        <v>150.5822028142002</v>
+      </c>
+      <c r="D24">
+        <v>167.2142028142002</v>
+      </c>
+      <c r="E24">
+        <v>2.531999999999996</v>
+      </c>
+      <c r="F24">
+        <v>37.532</v>
+      </c>
+      <c r="G24">
+        <v>20.9</v>
+      </c>
+      <c r="H24">
+        <v>135.6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>15.8</v>
+      </c>
+      <c r="K24">
+        <v>3.16</v>
+      </c>
+      <c r="L24">
+        <v>12.64</v>
+      </c>
+      <c r="M24">
+        <v>0.6080184</v>
+      </c>
+      <c r="N24">
+        <v>12.0319816</v>
+      </c>
+      <c r="O24">
+        <v>3.0079954</v>
+      </c>
+      <c r="P24">
+        <v>9.0239862</v>
+      </c>
+      <c r="Q24">
+        <v>12.1839862</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1250241675235825</v>
+      </c>
+      <c r="T24">
+        <v>1.050168834855769</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.25</v>
+      </c>
+      <c r="W24">
+        <v>0.01215</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>20.78884454812552</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09998155476715521</v>
+      </c>
+      <c r="C25">
+        <v>149.2639824632268</v>
+      </c>
+      <c r="D25">
+        <v>167.6019824632268</v>
+      </c>
+      <c r="E25">
+        <v>4.238</v>
+      </c>
+      <c r="F25">
+        <v>39.238</v>
+      </c>
+      <c r="G25">
+        <v>20.9</v>
+      </c>
+      <c r="H25">
+        <v>135.6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>15.8</v>
+      </c>
+      <c r="K25">
+        <v>3.16</v>
+      </c>
+      <c r="L25">
+        <v>12.64</v>
+      </c>
+      <c r="M25">
+        <v>0.6356556</v>
+      </c>
+      <c r="N25">
+        <v>12.0043444</v>
+      </c>
+      <c r="O25">
+        <v>3.0010861</v>
+      </c>
+      <c r="P25">
+        <v>9.003258300000001</v>
+      </c>
+      <c r="Q25">
+        <v>12.1632583</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1262169542430587</v>
+      </c>
+      <c r="T25">
+        <v>1.060993085884997</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.25</v>
+      </c>
+      <c r="W25">
+        <v>0.01215</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>19.88498174168528</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09977125886591609</v>
+      </c>
+      <c r="C26">
+        <v>147.9475648609229</v>
+      </c>
+      <c r="D26">
+        <v>167.9915648609229</v>
+      </c>
+      <c r="E26">
+        <v>5.943999999999996</v>
+      </c>
+      <c r="F26">
+        <v>40.944</v>
+      </c>
+      <c r="G26">
+        <v>20.9</v>
+      </c>
+      <c r="H26">
+        <v>135.6</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>15.8</v>
+      </c>
+      <c r="K26">
+        <v>3.16</v>
+      </c>
+      <c r="L26">
+        <v>12.64</v>
+      </c>
+      <c r="M26">
+        <v>0.6632927999999999</v>
+      </c>
+      <c r="N26">
+        <v>11.9767072</v>
+      </c>
+      <c r="O26">
+        <v>2.9941768</v>
+      </c>
+      <c r="P26">
+        <v>8.9825304</v>
+      </c>
+      <c r="Q26">
+        <v>12.1425304</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1274411300867317</v>
+      </c>
+      <c r="T26">
+        <v>1.072102185625522</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.25</v>
+      </c>
+      <c r="W26">
+        <v>0.01215</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>19.05644083578172</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09956096296467692</v>
+      </c>
+      <c r="C27">
+        <v>146.6329626077742</v>
+      </c>
+      <c r="D27">
+        <v>168.3829626077742</v>
+      </c>
+      <c r="E27">
+        <v>7.649999999999999</v>
+      </c>
+      <c r="F27">
+        <v>42.65</v>
+      </c>
+      <c r="G27">
+        <v>20.9</v>
+      </c>
+      <c r="H27">
+        <v>135.6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>15.8</v>
+      </c>
+      <c r="K27">
+        <v>3.16</v>
+      </c>
+      <c r="L27">
+        <v>12.64</v>
+      </c>
+      <c r="M27">
+        <v>0.6909299999999999</v>
+      </c>
+      <c r="N27">
+        <v>11.94907</v>
+      </c>
+      <c r="O27">
+        <v>2.9872675</v>
+      </c>
+      <c r="P27">
+        <v>8.961802500000001</v>
+      </c>
+      <c r="Q27">
+        <v>12.1218025</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1286979506195692</v>
+      </c>
+      <c r="T27">
+        <v>1.083507528025793</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.25</v>
+      </c>
+      <c r="W27">
+        <v>0.01215</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>18.29418320235046</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09935066706343781</v>
+      </c>
+      <c r="C28">
+        <v>145.3201884219702</v>
+      </c>
+      <c r="D28">
+        <v>168.7761884219702</v>
+      </c>
+      <c r="E28">
+        <v>9.356000000000002</v>
+      </c>
+      <c r="F28">
+        <v>44.356</v>
+      </c>
+      <c r="G28">
+        <v>20.9</v>
+      </c>
+      <c r="H28">
+        <v>135.6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>15.8</v>
+      </c>
+      <c r="K28">
+        <v>3.16</v>
+      </c>
+      <c r="L28">
+        <v>12.64</v>
+      </c>
+      <c r="M28">
+        <v>0.7185672</v>
+      </c>
+      <c r="N28">
+        <v>11.9214328</v>
+      </c>
+      <c r="O28">
+        <v>2.9803582</v>
+      </c>
+      <c r="P28">
+        <v>8.9410746</v>
+      </c>
+      <c r="Q28">
+        <v>12.1010746</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.129988739274916</v>
+      </c>
+      <c r="T28">
+        <v>1.095221122923369</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.25</v>
+      </c>
+      <c r="W28">
+        <v>0.01215</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>17.59056077149082</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09914037116219868</v>
+      </c>
+      <c r="C29">
+        <v>144.0092551407823</v>
+      </c>
+      <c r="D29">
+        <v>169.1712551407823</v>
+      </c>
+      <c r="E29">
+        <v>11.062</v>
+      </c>
+      <c r="F29">
+        <v>46.062</v>
+      </c>
+      <c r="G29">
+        <v>20.9</v>
+      </c>
+      <c r="H29">
+        <v>135.6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>15.8</v>
+      </c>
+      <c r="K29">
+        <v>3.16</v>
+      </c>
+      <c r="L29">
+        <v>12.64</v>
+      </c>
+      <c r="M29">
+        <v>0.7462044</v>
+      </c>
+      <c r="N29">
+        <v>11.8937956</v>
+      </c>
+      <c r="O29">
+        <v>2.9734489</v>
+      </c>
+      <c r="P29">
+        <v>8.9203467</v>
+      </c>
+      <c r="Q29">
+        <v>12.0803467</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1313148920030119</v>
+      </c>
+      <c r="T29">
+        <v>1.107255638229098</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.25</v>
+      </c>
+      <c r="W29">
+        <v>0.01215</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>16.93905852069487</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09893007526095952</v>
+      </c>
+      <c r="C30">
+        <v>142.7001757219601</v>
+      </c>
+      <c r="D30">
+        <v>169.56817572196</v>
+      </c>
+      <c r="E30">
+        <v>12.768</v>
+      </c>
+      <c r="F30">
+        <v>47.768</v>
+      </c>
+      <c r="G30">
+        <v>20.9</v>
+      </c>
+      <c r="H30">
+        <v>135.6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>15.8</v>
+      </c>
+      <c r="K30">
+        <v>3.16</v>
+      </c>
+      <c r="L30">
+        <v>12.64</v>
+      </c>
+      <c r="M30">
+        <v>0.7738416</v>
+      </c>
+      <c r="N30">
+        <v>11.8661584</v>
+      </c>
+      <c r="O30">
+        <v>2.9665396</v>
+      </c>
+      <c r="P30">
+        <v>8.899618799999999</v>
+      </c>
+      <c r="Q30">
+        <v>12.0596188</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1326778823068882</v>
+      </c>
+      <c r="T30">
+        <v>1.119624445626653</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.25</v>
+      </c>
+      <c r="W30">
+        <v>0.01215</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>16.33409214495576</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09871977935972037</v>
+      </c>
+      <c r="C31">
+        <v>141.3929632451486</v>
+      </c>
+      <c r="D31">
+        <v>169.9669632451486</v>
+      </c>
+      <c r="E31">
+        <v>14.474</v>
+      </c>
+      <c r="F31">
+        <v>49.474</v>
+      </c>
+      <c r="G31">
+        <v>20.9</v>
+      </c>
+      <c r="H31">
+        <v>135.6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>15.8</v>
+      </c>
+      <c r="K31">
+        <v>3.16</v>
+      </c>
+      <c r="L31">
+        <v>12.64</v>
+      </c>
+      <c r="M31">
+        <v>0.8014787999999999</v>
+      </c>
+      <c r="N31">
+        <v>11.8385212</v>
+      </c>
+      <c r="O31">
+        <v>2.9596303</v>
+      </c>
+      <c r="P31">
+        <v>8.8788909</v>
+      </c>
+      <c r="Q31">
+        <v>12.0388909</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1340792667038315</v>
+      </c>
+      <c r="T31">
+        <v>1.132341670133998</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.25</v>
+      </c>
+      <c r="W31">
+        <v>0.01215</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>15.77084758823315</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.09850948345848123</v>
+      </c>
+      <c r="C32">
+        <v>140.0876309133249</v>
+      </c>
+      <c r="D32">
+        <v>170.3676309133249</v>
+      </c>
+      <c r="E32">
+        <v>16.18</v>
+      </c>
+      <c r="F32">
+        <v>51.18</v>
+      </c>
+      <c r="G32">
+        <v>20.9</v>
+      </c>
+      <c r="H32">
+        <v>135.6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>15.8</v>
+      </c>
+      <c r="K32">
+        <v>3.16</v>
+      </c>
+      <c r="L32">
+        <v>12.64</v>
+      </c>
+      <c r="M32">
+        <v>0.829116</v>
+      </c>
+      <c r="N32">
+        <v>11.810884</v>
+      </c>
+      <c r="O32">
+        <v>2.952721</v>
+      </c>
+      <c r="P32">
+        <v>8.858163000000001</v>
+      </c>
+      <c r="Q32">
+        <v>12.018163</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1355206906549732</v>
+      </c>
+      <c r="T32">
+        <v>1.145422243912981</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.25</v>
+      </c>
+      <c r="W32">
+        <v>0.01215</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>15.24515266862538</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.09829918755724211</v>
+      </c>
+      <c r="C33">
+        <v>138.7841920542549</v>
+      </c>
+      <c r="D33">
+        <v>170.7701920542549</v>
+      </c>
+      <c r="E33">
+        <v>17.886</v>
+      </c>
+      <c r="F33">
+        <v>52.886</v>
+      </c>
+      <c r="G33">
+        <v>20.9</v>
+      </c>
+      <c r="H33">
+        <v>135.6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>15.8</v>
+      </c>
+      <c r="K33">
+        <v>3.16</v>
+      </c>
+      <c r="L33">
+        <v>12.64</v>
+      </c>
+      <c r="M33">
+        <v>0.8567531999999999</v>
+      </c>
+      <c r="N33">
+        <v>11.7832468</v>
+      </c>
+      <c r="O33">
+        <v>2.9458117</v>
+      </c>
+      <c r="P33">
+        <v>8.8374351</v>
+      </c>
+      <c r="Q33">
+        <v>11.9974351</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1370038950104958</v>
+      </c>
+      <c r="T33">
+        <v>1.158881964758022</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.25</v>
+      </c>
+      <c r="W33">
+        <v>0.01215</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>14.75337355028263</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.09808889165600296</v>
+      </c>
+      <c r="C34">
+        <v>137.4826601219719</v>
+      </c>
+      <c r="D34">
+        <v>171.1746601219719</v>
+      </c>
+      <c r="E34">
+        <v>19.592</v>
+      </c>
+      <c r="F34">
+        <v>54.592</v>
+      </c>
+      <c r="G34">
+        <v>20.9</v>
+      </c>
+      <c r="H34">
+        <v>135.6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>15.8</v>
+      </c>
+      <c r="K34">
+        <v>3.16</v>
+      </c>
+      <c r="L34">
+        <v>12.64</v>
+      </c>
+      <c r="M34">
+        <v>0.8843903999999999</v>
+      </c>
+      <c r="N34">
+        <v>11.7556096</v>
+      </c>
+      <c r="O34">
+        <v>2.9389024</v>
+      </c>
+      <c r="P34">
+        <v>8.816707200000002</v>
+      </c>
+      <c r="Q34">
+        <v>11.9767072</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1385307230235338</v>
+      </c>
+      <c r="T34">
+        <v>1.172737559745564</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.25</v>
+      </c>
+      <c r="W34">
+        <v>0.01215</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>14.2923306268363</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.09787859575476382</v>
+      </c>
+      <c r="C35">
+        <v>136.1830486982743</v>
+      </c>
+      <c r="D35">
+        <v>171.5810486982743</v>
+      </c>
+      <c r="E35">
+        <v>21.298</v>
+      </c>
+      <c r="F35">
+        <v>56.298</v>
+      </c>
+      <c r="G35">
+        <v>20.9</v>
+      </c>
+      <c r="H35">
+        <v>135.6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>15.8</v>
+      </c>
+      <c r="K35">
+        <v>3.16</v>
+      </c>
+      <c r="L35">
+        <v>12.64</v>
+      </c>
+      <c r="M35">
+        <v>0.9120275999999999</v>
+      </c>
+      <c r="N35">
+        <v>11.7279724</v>
+      </c>
+      <c r="O35">
+        <v>2.9319931</v>
+      </c>
+      <c r="P35">
+        <v>8.795979300000001</v>
+      </c>
+      <c r="Q35">
+        <v>11.9559793</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1401031279921848</v>
+      </c>
+      <c r="T35">
+        <v>1.187006754583481</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.25</v>
+      </c>
+      <c r="W35">
+        <v>0.01215</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>13.85922969875035</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0980762998535247</v>
+      </c>
+      <c r="C36">
+        <v>134.0949390963501</v>
+      </c>
+      <c r="D36">
+        <v>171.1989390963501</v>
+      </c>
+      <c r="E36">
+        <v>23.004</v>
+      </c>
+      <c r="F36">
+        <v>58.004</v>
+      </c>
+      <c r="G36">
+        <v>20.9</v>
+      </c>
+      <c r="H36">
+        <v>135.6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>15.8</v>
+      </c>
+      <c r="K36">
+        <v>3.16</v>
+      </c>
+      <c r="L36">
+        <v>12.64</v>
+      </c>
+      <c r="M36">
+        <v>1.0324712</v>
+      </c>
+      <c r="N36">
+        <v>11.6075288</v>
+      </c>
+      <c r="O36">
+        <v>2.9018822</v>
+      </c>
+      <c r="P36">
+        <v>8.705646600000001</v>
+      </c>
+      <c r="Q36">
+        <v>11.8656466</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1417231815962496</v>
+      </c>
+      <c r="T36">
+        <v>1.201708349264971</v>
+      </c>
+      <c r="U36">
+        <v>0.0178</v>
+      </c>
+      <c r="V36">
+        <v>0.25</v>
+      </c>
+      <c r="W36">
+        <v>0.01335</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>12.24247223554517</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.09787800395228555</v>
+      </c>
+      <c r="C37">
+        <v>132.7721950561207</v>
+      </c>
+      <c r="D37">
+        <v>171.5821950561207</v>
+      </c>
+      <c r="E37">
+        <v>24.71</v>
+      </c>
+      <c r="F37">
+        <v>59.71</v>
+      </c>
+      <c r="G37">
+        <v>20.9</v>
+      </c>
+      <c r="H37">
+        <v>135.6</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>15.8</v>
+      </c>
+      <c r="K37">
+        <v>3.16</v>
+      </c>
+      <c r="L37">
+        <v>12.64</v>
+      </c>
+      <c r="M37">
+        <v>1.062838</v>
+      </c>
+      <c r="N37">
+        <v>11.577162</v>
+      </c>
+      <c r="O37">
+        <v>2.8942905</v>
+      </c>
+      <c r="P37">
+        <v>8.682871500000001</v>
+      </c>
+      <c r="Q37">
+        <v>11.8428715</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1433930830035162</v>
+      </c>
+      <c r="T37">
+        <v>1.216862300705891</v>
+      </c>
+      <c r="U37">
+        <v>0.0178</v>
+      </c>
+      <c r="V37">
+        <v>0.25</v>
+      </c>
+      <c r="W37">
+        <v>0.01335</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>11.89268731452959</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.09767970805104642</v>
+      </c>
+      <c r="C38">
+        <v>131.4511708243772</v>
+      </c>
+      <c r="D38">
+        <v>171.9671708243772</v>
+      </c>
+      <c r="E38">
+        <v>26.416</v>
+      </c>
+      <c r="F38">
+        <v>61.416</v>
+      </c>
+      <c r="G38">
+        <v>20.9</v>
+      </c>
+      <c r="H38">
+        <v>135.6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>15.8</v>
+      </c>
+      <c r="K38">
+        <v>3.16</v>
+      </c>
+      <c r="L38">
+        <v>12.64</v>
+      </c>
+      <c r="M38">
+        <v>1.0932048</v>
+      </c>
+      <c r="N38">
+        <v>11.5467952</v>
+      </c>
+      <c r="O38">
+        <v>2.8866988</v>
+      </c>
+      <c r="P38">
+        <v>8.6600964</v>
+      </c>
+      <c r="Q38">
+        <v>11.8200964</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.14511516882976</v>
+      </c>
+      <c r="T38">
+        <v>1.23248981312934</v>
+      </c>
+      <c r="U38">
+        <v>0.0178</v>
+      </c>
+      <c r="V38">
+        <v>0.25</v>
+      </c>
+      <c r="W38">
+        <v>0.01335</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>11.56233488912599</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.09748141214980729</v>
+      </c>
+      <c r="C39">
+        <v>130.1318780032579</v>
+      </c>
+      <c r="D39">
+        <v>172.3538780032579</v>
+      </c>
+      <c r="E39">
+        <v>28.122</v>
+      </c>
+      <c r="F39">
+        <v>63.122</v>
+      </c>
+      <c r="G39">
+        <v>20.9</v>
+      </c>
+      <c r="H39">
+        <v>135.6</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>15.8</v>
+      </c>
+      <c r="K39">
+        <v>3.16</v>
+      </c>
+      <c r="L39">
+        <v>12.64</v>
+      </c>
+      <c r="M39">
+        <v>1.1235716</v>
+      </c>
+      <c r="N39">
+        <v>11.5164284</v>
+      </c>
+      <c r="O39">
+        <v>2.8791071</v>
+      </c>
+      <c r="P39">
+        <v>8.6373213</v>
+      </c>
+      <c r="Q39">
+        <v>11.7973213</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1468919240473132</v>
+      </c>
+      <c r="T39">
+        <v>1.248613437058295</v>
+      </c>
+      <c r="U39">
+        <v>0.0178</v>
+      </c>
+      <c r="V39">
+        <v>0.25</v>
+      </c>
+      <c r="W39">
+        <v>0.01335</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>11.24983935158204</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.09728311624856813</v>
+      </c>
+      <c r="C40">
+        <v>128.8143282994961</v>
+      </c>
+      <c r="D40">
+        <v>172.7423282994961</v>
+      </c>
+      <c r="E40">
+        <v>29.828</v>
+      </c>
+      <c r="F40">
+        <v>64.828</v>
+      </c>
+      <c r="G40">
+        <v>20.9</v>
+      </c>
+      <c r="H40">
+        <v>135.6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>15.8</v>
+      </c>
+      <c r="K40">
+        <v>3.16</v>
+      </c>
+      <c r="L40">
+        <v>12.64</v>
+      </c>
+      <c r="M40">
+        <v>1.1539384</v>
+      </c>
+      <c r="N40">
+        <v>11.4860616</v>
+      </c>
+      <c r="O40">
+        <v>2.8715154</v>
+      </c>
+      <c r="P40">
+        <v>8.614546200000001</v>
+      </c>
+      <c r="Q40">
+        <v>11.7745462</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1487259939493034</v>
+      </c>
+      <c r="T40">
+        <v>1.265257177888184</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.25</v>
+      </c>
+      <c r="W40">
+        <v>0.01335</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>10.95379094759304</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.09772832034732899</v>
+      </c>
+      <c r="C41">
+        <v>126.2386341530241</v>
+      </c>
+      <c r="D41">
+        <v>171.8726341530241</v>
+      </c>
+      <c r="E41">
+        <v>31.53400000000001</v>
+      </c>
+      <c r="F41">
+        <v>66.53400000000001</v>
+      </c>
+      <c r="G41">
+        <v>20.9</v>
+      </c>
+      <c r="H41">
+        <v>135.6</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>15.8</v>
+      </c>
+      <c r="K41">
+        <v>3.16</v>
+      </c>
+      <c r="L41">
+        <v>12.64</v>
+      </c>
+      <c r="M41">
+        <v>1.33068</v>
+      </c>
+      <c r="N41">
+        <v>11.30932</v>
+      </c>
+      <c r="O41">
+        <v>2.82733</v>
+      </c>
+      <c r="P41">
+        <v>8.481990000000001</v>
+      </c>
+      <c r="Q41">
+        <v>11.64199</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1506201972907033</v>
+      </c>
+      <c r="T41">
+        <v>1.282446615138726</v>
+      </c>
+      <c r="U41">
+        <v>0.02</v>
+      </c>
+      <c r="V41">
+        <v>0.25</v>
+      </c>
+      <c r="W41">
+        <v>0.015</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>9.498902816605046</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.09754652444608986</v>
+      </c>
+      <c r="C42">
+        <v>124.8867074790878</v>
+      </c>
+      <c r="D42">
+        <v>172.2267074790878</v>
+      </c>
+      <c r="E42">
+        <v>33.23999999999999</v>
+      </c>
+      <c r="F42">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="G42">
+        <v>20.9</v>
+      </c>
+      <c r="H42">
+        <v>135.6</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>15.8</v>
+      </c>
+      <c r="K42">
+        <v>3.16</v>
+      </c>
+      <c r="L42">
+        <v>12.64</v>
+      </c>
+      <c r="M42">
+        <v>1.3648</v>
+      </c>
+      <c r="N42">
+        <v>11.2752</v>
+      </c>
+      <c r="O42">
+        <v>2.8188</v>
+      </c>
+      <c r="P42">
+        <v>8.456400000000002</v>
+      </c>
+      <c r="Q42">
+        <v>11.6164</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1525775407434831</v>
+      </c>
+      <c r="T42">
+        <v>1.300209033630952</v>
+      </c>
+      <c r="U42">
+        <v>0.02</v>
+      </c>
+      <c r="V42">
+        <v>0.25</v>
+      </c>
+      <c r="W42">
+        <v>0.015</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>9.261430246189921</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.09736472854485073</v>
+      </c>
+      <c r="C43">
+        <v>123.5362426635023</v>
+      </c>
+      <c r="D43">
+        <v>172.5822426635023</v>
+      </c>
+      <c r="E43">
+        <v>34.946</v>
+      </c>
+      <c r="F43">
+        <v>69.946</v>
+      </c>
+      <c r="G43">
+        <v>20.9</v>
+      </c>
+      <c r="H43">
+        <v>135.6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>15.8</v>
+      </c>
+      <c r="K43">
+        <v>3.16</v>
+      </c>
+      <c r="L43">
+        <v>12.64</v>
+      </c>
+      <c r="M43">
+        <v>1.39892</v>
+      </c>
+      <c r="N43">
+        <v>11.24108</v>
+      </c>
+      <c r="O43">
+        <v>2.81027</v>
+      </c>
+      <c r="P43">
+        <v>8.430810000000001</v>
+      </c>
+      <c r="Q43">
+        <v>11.59081</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1546012348217809</v>
+      </c>
+      <c r="T43">
+        <v>1.318573568004271</v>
+      </c>
+      <c r="U43">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0.25</v>
+      </c>
+      <c r="W43">
+        <v>0.015</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>9.035541703599922</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.09718293264361159</v>
+      </c>
+      <c r="C44">
+        <v>122.1872487783314</v>
+      </c>
+      <c r="D44">
+        <v>172.9392487783314</v>
+      </c>
+      <c r="E44">
+        <v>36.652</v>
+      </c>
+      <c r="F44">
+        <v>71.652</v>
+      </c>
+      <c r="G44">
+        <v>20.9</v>
+      </c>
+      <c r="H44">
+        <v>135.6</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>15.8</v>
+      </c>
+      <c r="K44">
+        <v>3.16</v>
+      </c>
+      <c r="L44">
+        <v>12.64</v>
+      </c>
+      <c r="M44">
+        <v>1.43304</v>
+      </c>
+      <c r="N44">
+        <v>11.20696</v>
+      </c>
+      <c r="O44">
+        <v>2.80174</v>
+      </c>
+      <c r="P44">
+        <v>8.40522</v>
+      </c>
+      <c r="Q44">
+        <v>11.56522</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1566947114545027</v>
+      </c>
+      <c r="T44">
+        <v>1.337571362183565</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0.25</v>
+      </c>
+      <c r="W44">
+        <v>0.015</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>8.820409758276114</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.09700113674237244</v>
+      </c>
+      <c r="C45">
+        <v>120.8397349708609</v>
+      </c>
+      <c r="D45">
+        <v>173.2977349708609</v>
+      </c>
+      <c r="E45">
+        <v>38.35799999999999</v>
+      </c>
+      <c r="F45">
+        <v>73.35799999999999</v>
+      </c>
+      <c r="G45">
+        <v>20.9</v>
+      </c>
+      <c r="H45">
+        <v>135.6</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>15.8</v>
+      </c>
+      <c r="K45">
+        <v>3.16</v>
+      </c>
+      <c r="L45">
+        <v>12.64</v>
+      </c>
+      <c r="M45">
+        <v>1.46716</v>
+      </c>
+      <c r="N45">
+        <v>11.17284</v>
+      </c>
+      <c r="O45">
+        <v>2.79321</v>
+      </c>
+      <c r="P45">
+        <v>8.379630000000001</v>
+      </c>
+      <c r="Q45">
+        <v>11.53963</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1588616434076709</v>
+      </c>
+      <c r="T45">
+        <v>1.357235745632309</v>
+      </c>
+      <c r="U45">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0.25</v>
+      </c>
+      <c r="W45">
+        <v>0.015</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>8.615283949944113</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.09681934084113332</v>
+      </c>
+      <c r="C46">
+        <v>119.4937104643797</v>
+      </c>
+      <c r="D46">
+        <v>173.6577104643797</v>
+      </c>
+      <c r="E46">
+        <v>40.06399999999999</v>
+      </c>
+      <c r="F46">
+        <v>75.06399999999999</v>
+      </c>
+      <c r="G46">
+        <v>20.9</v>
+      </c>
+      <c r="H46">
+        <v>135.6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>15.8</v>
+      </c>
+      <c r="K46">
+        <v>3.16</v>
+      </c>
+      <c r="L46">
+        <v>12.64</v>
+      </c>
+      <c r="M46">
+        <v>1.50128</v>
+      </c>
+      <c r="N46">
+        <v>11.13872</v>
+      </c>
+      <c r="O46">
+        <v>2.78468</v>
+      </c>
+      <c r="P46">
+        <v>8.354040000000001</v>
+      </c>
+      <c r="Q46">
+        <v>11.51404</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1611059657877381</v>
+      </c>
+      <c r="T46">
+        <v>1.377602428489937</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.25</v>
+      </c>
+      <c r="W46">
+        <v>0.015</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>8.419482041990836</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.09663754493989418</v>
+      </c>
+      <c r="C47">
+        <v>118.1491845589712</v>
+      </c>
+      <c r="D47">
+        <v>174.0191845589712</v>
+      </c>
+      <c r="E47">
+        <v>41.77</v>
+      </c>
+      <c r="F47">
+        <v>76.77</v>
+      </c>
+      <c r="G47">
+        <v>20.9</v>
+      </c>
+      <c r="H47">
+        <v>135.6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>15.8</v>
+      </c>
+      <c r="K47">
+        <v>3.16</v>
+      </c>
+      <c r="L47">
+        <v>12.64</v>
+      </c>
+      <c r="M47">
+        <v>1.5354</v>
+      </c>
+      <c r="N47">
+        <v>11.1046</v>
+      </c>
+      <c r="O47">
+        <v>2.77615</v>
+      </c>
+      <c r="P47">
+        <v>8.32845</v>
+      </c>
+      <c r="Q47">
+        <v>11.48845</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1634318998907167</v>
+      </c>
+      <c r="T47">
+        <v>1.398709717996933</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.25</v>
+      </c>
+      <c r="W47">
+        <v>0.015</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>8.232382441057707</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.09645574903865503</v>
+      </c>
+      <c r="C48">
+        <v>116.806166632314</v>
+      </c>
+      <c r="D48">
+        <v>174.382166632314</v>
+      </c>
+      <c r="E48">
+        <v>43.476</v>
+      </c>
+      <c r="F48">
+        <v>78.476</v>
+      </c>
+      <c r="G48">
+        <v>20.9</v>
+      </c>
+      <c r="H48">
+        <v>135.6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>15.8</v>
+      </c>
+      <c r="K48">
+        <v>3.16</v>
+      </c>
+      <c r="L48">
+        <v>12.64</v>
+      </c>
+      <c r="M48">
+        <v>1.56952</v>
+      </c>
+      <c r="N48">
+        <v>11.07048</v>
+      </c>
+      <c r="O48">
+        <v>2.76762</v>
+      </c>
+      <c r="P48">
+        <v>8.302859999999999</v>
+      </c>
+      <c r="Q48">
+        <v>11.46286</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.165843979701213</v>
+      </c>
+      <c r="T48">
+        <v>1.420598758967151</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.25</v>
+      </c>
+      <c r="W48">
+        <v>0.015</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>8.053417605382538</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.0966617031374159</v>
+      </c>
+      <c r="C49">
+        <v>114.6890629028889</v>
+      </c>
+      <c r="D49">
+        <v>173.9710629028889</v>
+      </c>
+      <c r="E49">
+        <v>45.182</v>
+      </c>
+      <c r="F49">
+        <v>80.182</v>
+      </c>
+      <c r="G49">
+        <v>20.9</v>
+      </c>
+      <c r="H49">
+        <v>135.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>15.8</v>
+      </c>
+      <c r="K49">
+        <v>3.16</v>
+      </c>
+      <c r="L49">
+        <v>12.64</v>
+      </c>
+      <c r="M49">
+        <v>1.6918402</v>
+      </c>
+      <c r="N49">
+        <v>10.9481598</v>
+      </c>
+      <c r="O49">
+        <v>2.73703995</v>
+      </c>
+      <c r="P49">
+        <v>8.211119850000001</v>
+      </c>
+      <c r="Q49">
+        <v>11.37111985</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1683470813913507</v>
+      </c>
+      <c r="T49">
+        <v>1.443313801483415</v>
+      </c>
+      <c r="U49">
+        <v>0.0211</v>
+      </c>
+      <c r="V49">
+        <v>0.25</v>
+      </c>
+      <c r="W49">
+        <v>0.015825</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>7.471154781639543</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.09648815723617676</v>
+      </c>
+      <c r="C50">
+        <v>113.3293480619986</v>
+      </c>
+      <c r="D50">
+        <v>174.3173480619986</v>
+      </c>
+      <c r="E50">
+        <v>46.88799999999999</v>
+      </c>
+      <c r="F50">
+        <v>81.88799999999999</v>
+      </c>
+      <c r="G50">
+        <v>20.9</v>
+      </c>
+      <c r="H50">
+        <v>135.6</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>15.8</v>
+      </c>
+      <c r="K50">
+        <v>3.16</v>
+      </c>
+      <c r="L50">
+        <v>12.64</v>
+      </c>
+      <c r="M50">
+        <v>1.7278368</v>
+      </c>
+      <c r="N50">
+        <v>10.9121632</v>
+      </c>
+      <c r="O50">
+        <v>2.7280408</v>
+      </c>
+      <c r="P50">
+        <v>8.1841224</v>
+      </c>
+      <c r="Q50">
+        <v>11.3441224</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1709464562234168</v>
+      </c>
+      <c r="T50">
+        <v>1.466902499481074</v>
+      </c>
+      <c r="U50">
+        <v>0.0211</v>
+      </c>
+      <c r="V50">
+        <v>0.25</v>
+      </c>
+      <c r="W50">
+        <v>0.015825</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>7.315505723688719</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.09631461133493761</v>
+      </c>
+      <c r="C51">
+        <v>111.9710145148727</v>
+      </c>
+      <c r="D51">
+        <v>174.6650145148727</v>
+      </c>
+      <c r="E51">
+        <v>48.59399999999999</v>
+      </c>
+      <c r="F51">
+        <v>83.59399999999999</v>
+      </c>
+      <c r="G51">
+        <v>20.9</v>
+      </c>
+      <c r="H51">
+        <v>135.6</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>15.8</v>
+      </c>
+      <c r="K51">
+        <v>3.16</v>
+      </c>
+      <c r="L51">
+        <v>12.64</v>
+      </c>
+      <c r="M51">
+        <v>1.7638334</v>
+      </c>
+      <c r="N51">
+        <v>10.8761666</v>
+      </c>
+      <c r="O51">
+        <v>2.71904165</v>
+      </c>
+      <c r="P51">
+        <v>8.15712495</v>
+      </c>
+      <c r="Q51">
+        <v>11.31712495</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1736477673234071</v>
+      </c>
+      <c r="T51">
+        <v>1.491416244459033</v>
+      </c>
+      <c r="U51">
+        <v>0.0211</v>
+      </c>
+      <c r="V51">
+        <v>0.25</v>
+      </c>
+      <c r="W51">
+        <v>0.015825</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>7.166209688511398</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.09614106543369848</v>
+      </c>
+      <c r="C52">
+        <v>110.6140705427732</v>
+      </c>
+      <c r="D52">
+        <v>175.0140705427732</v>
+      </c>
+      <c r="E52">
+        <v>50.3</v>
+      </c>
+      <c r="F52">
+        <v>85.3</v>
+      </c>
+      <c r="G52">
+        <v>20.9</v>
+      </c>
+      <c r="H52">
+        <v>135.6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>15.8</v>
+      </c>
+      <c r="K52">
+        <v>3.16</v>
+      </c>
+      <c r="L52">
+        <v>12.64</v>
+      </c>
+      <c r="M52">
+        <v>1.79983</v>
+      </c>
+      <c r="N52">
+        <v>10.84017</v>
+      </c>
+      <c r="O52">
+        <v>2.7100425</v>
+      </c>
+      <c r="P52">
+        <v>8.1301275</v>
+      </c>
+      <c r="Q52">
+        <v>11.2901275</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1764571308673969</v>
+      </c>
+      <c r="T52">
+        <v>1.51691053923611</v>
+      </c>
+      <c r="U52">
+        <v>0.0211</v>
+      </c>
+      <c r="V52">
+        <v>0.25</v>
+      </c>
+      <c r="W52">
+        <v>0.015825</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>7.02288549474117</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.09596751953245934</v>
+      </c>
+      <c r="C53">
+        <v>109.2585244932927</v>
+      </c>
+      <c r="D53">
+        <v>175.3645244932927</v>
+      </c>
+      <c r="E53">
+        <v>52.006</v>
+      </c>
+      <c r="F53">
+        <v>87.006</v>
+      </c>
+      <c r="G53">
+        <v>20.9</v>
+      </c>
+      <c r="H53">
+        <v>135.6</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>15.8</v>
+      </c>
+      <c r="K53">
+        <v>3.16</v>
+      </c>
+      <c r="L53">
+        <v>12.64</v>
+      </c>
+      <c r="M53">
+        <v>1.8358266</v>
+      </c>
+      <c r="N53">
+        <v>10.8041734</v>
+      </c>
+      <c r="O53">
+        <v>2.70104335</v>
+      </c>
+      <c r="P53">
+        <v>8.103130050000001</v>
+      </c>
+      <c r="Q53">
+        <v>11.26313005</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1793811623111415</v>
+      </c>
+      <c r="T53">
+        <v>1.543445417473477</v>
+      </c>
+      <c r="U53">
+        <v>0.0211</v>
+      </c>
+      <c r="V53">
+        <v>0.25</v>
+      </c>
+      <c r="W53">
+        <v>0.015825</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>6.885181857589382</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.09579397363122021</v>
+      </c>
+      <c r="C54">
+        <v>107.90438478102</v>
+      </c>
+      <c r="D54">
+        <v>175.71638478102</v>
+      </c>
+      <c r="E54">
+        <v>53.712</v>
+      </c>
+      <c r="F54">
+        <v>88.712</v>
+      </c>
+      <c r="G54">
+        <v>20.9</v>
+      </c>
+      <c r="H54">
+        <v>135.6</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>15.8</v>
+      </c>
+      <c r="K54">
+        <v>3.16</v>
+      </c>
+      <c r="L54">
+        <v>12.64</v>
+      </c>
+      <c r="M54">
+        <v>1.8718232</v>
+      </c>
+      <c r="N54">
+        <v>10.7681768</v>
+      </c>
+      <c r="O54">
+        <v>2.6920442</v>
+      </c>
+      <c r="P54">
+        <v>8.076132600000001</v>
+      </c>
+      <c r="Q54">
+        <v>11.2361326</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1824270283983754</v>
+      </c>
+      <c r="T54">
+        <v>1.5710859156374</v>
+      </c>
+      <c r="U54">
+        <v>0.0211</v>
+      </c>
+      <c r="V54">
+        <v>0.25</v>
+      </c>
+      <c r="W54">
+        <v>0.015825</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>6.752774514174202</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.09562042772998106</v>
+      </c>
+      <c r="C55">
+        <v>106.5516598882136</v>
+      </c>
+      <c r="D55">
+        <v>176.0696598882136</v>
+      </c>
+      <c r="E55">
+        <v>55.41800000000001</v>
+      </c>
+      <c r="F55">
+        <v>90.41800000000001</v>
+      </c>
+      <c r="G55">
+        <v>20.9</v>
+      </c>
+      <c r="H55">
+        <v>135.6</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>15.8</v>
+      </c>
+      <c r="K55">
+        <v>3.16</v>
+      </c>
+      <c r="L55">
+        <v>12.64</v>
+      </c>
+      <c r="M55">
+        <v>1.9078198</v>
+      </c>
+      <c r="N55">
+        <v>10.7321802</v>
+      </c>
+      <c r="O55">
+        <v>2.68304505</v>
+      </c>
+      <c r="P55">
+        <v>8.04913515</v>
+      </c>
+      <c r="Q55">
+        <v>11.20913515</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1856025058084703</v>
+      </c>
+      <c r="T55">
+        <v>1.599902605212554</v>
+      </c>
+      <c r="U55">
+        <v>0.0211</v>
+      </c>
+      <c r="V55">
+        <v>0.25</v>
+      </c>
+      <c r="W55">
+        <v>0.015825</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>6.625363674284122</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.09544688182874193</v>
+      </c>
+      <c r="C56">
+        <v>105.2003583654831</v>
+      </c>
+      <c r="D56">
+        <v>176.4243583654831</v>
+      </c>
+      <c r="E56">
+        <v>57.12400000000001</v>
+      </c>
+      <c r="F56">
+        <v>92.12400000000001</v>
+      </c>
+      <c r="G56">
+        <v>20.9</v>
+      </c>
+      <c r="H56">
+        <v>135.6</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>15.8</v>
+      </c>
+      <c r="K56">
+        <v>3.16</v>
+      </c>
+      <c r="L56">
+        <v>12.64</v>
+      </c>
+      <c r="M56">
+        <v>1.9438164</v>
+      </c>
+      <c r="N56">
+        <v>10.6961836</v>
+      </c>
+      <c r="O56">
+        <v>2.6740459</v>
+      </c>
+      <c r="P56">
+        <v>8.022137700000002</v>
+      </c>
+      <c r="Q56">
+        <v>11.1821377</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1889160474537868</v>
+      </c>
+      <c r="T56">
+        <v>1.629972194334454</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.25</v>
+      </c>
+      <c r="W56">
+        <v>0.015825</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>6.502671754389972</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.09589208592750277</v>
+      </c>
+      <c r="C57">
+        <v>102.5872910899433</v>
+      </c>
+      <c r="D57">
+        <v>175.5172910899433</v>
+      </c>
+      <c r="E57">
+        <v>58.83</v>
+      </c>
+      <c r="F57">
+        <v>93.83</v>
+      </c>
+      <c r="G57">
+        <v>20.9</v>
+      </c>
+      <c r="H57">
+        <v>135.6</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>15.8</v>
+      </c>
+      <c r="K57">
+        <v>3.16</v>
+      </c>
+      <c r="L57">
+        <v>12.64</v>
+      </c>
+      <c r="M57">
+        <v>2.120558</v>
+      </c>
+      <c r="N57">
+        <v>10.519442</v>
+      </c>
+      <c r="O57">
+        <v>2.6298605</v>
+      </c>
+      <c r="P57">
+        <v>7.889581500000001</v>
+      </c>
+      <c r="Q57">
+        <v>11.0495815</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1923768576166729</v>
+      </c>
+      <c r="T57">
+        <v>1.66137820963955</v>
+      </c>
+      <c r="U57">
+        <v>0.0226</v>
+      </c>
+      <c r="V57">
+        <v>0.25</v>
+      </c>
+      <c r="W57">
+        <v>0.01695</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>5.960695250966963</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.09572979002626363</v>
+      </c>
+      <c r="C58">
+        <v>101.2108734819847</v>
+      </c>
+      <c r="D58">
+        <v>175.8468734819847</v>
+      </c>
+      <c r="E58">
+        <v>60.536</v>
+      </c>
+      <c r="F58">
+        <v>95.536</v>
+      </c>
+      <c r="G58">
+        <v>20.9</v>
+      </c>
+      <c r="H58">
+        <v>135.6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>15.8</v>
+      </c>
+      <c r="K58">
+        <v>3.16</v>
+      </c>
+      <c r="L58">
+        <v>12.64</v>
+      </c>
+      <c r="M58">
+        <v>2.1591136</v>
+      </c>
+      <c r="N58">
+        <v>10.4808864</v>
+      </c>
+      <c r="O58">
+        <v>2.6202216</v>
+      </c>
+      <c r="P58">
+        <v>7.8606648</v>
+      </c>
+      <c r="Q58">
+        <v>11.0206648</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1959949773324174</v>
+      </c>
+      <c r="T58">
+        <v>1.694211771094877</v>
+      </c>
+      <c r="U58">
+        <v>0.0226</v>
+      </c>
+      <c r="V58">
+        <v>0.25</v>
+      </c>
+      <c r="W58">
+        <v>0.01695</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>5.854254264342553</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.09556749412502451</v>
+      </c>
+      <c r="C59">
+        <v>99.83569596734036</v>
+      </c>
+      <c r="D59">
+        <v>176.1776959673404</v>
+      </c>
+      <c r="E59">
+        <v>62.242</v>
+      </c>
+      <c r="F59">
+        <v>97.242</v>
+      </c>
+      <c r="G59">
+        <v>20.9</v>
+      </c>
+      <c r="H59">
+        <v>135.6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>15.8</v>
+      </c>
+      <c r="K59">
+        <v>3.16</v>
+      </c>
+      <c r="L59">
+        <v>12.64</v>
+      </c>
+      <c r="M59">
+        <v>2.1976692</v>
+      </c>
+      <c r="N59">
+        <v>10.4423308</v>
+      </c>
+      <c r="O59">
+        <v>2.6105827</v>
+      </c>
+      <c r="P59">
+        <v>7.8317481</v>
+      </c>
+      <c r="Q59">
+        <v>10.9917481</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1997813816861035</v>
+      </c>
+      <c r="T59">
+        <v>1.728572474943475</v>
+      </c>
+      <c r="U59">
+        <v>0.0226</v>
+      </c>
+      <c r="V59">
+        <v>0.25</v>
+      </c>
+      <c r="W59">
+        <v>0.01695</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>5.751548049178648</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.09540519822378538</v>
+      </c>
+      <c r="C60">
+        <v>98.46176555820223</v>
+      </c>
+      <c r="D60">
+        <v>176.5097655582022</v>
+      </c>
+      <c r="E60">
+        <v>63.94799999999999</v>
+      </c>
+      <c r="F60">
+        <v>98.94799999999999</v>
+      </c>
+      <c r="G60">
+        <v>20.9</v>
+      </c>
+      <c r="H60">
+        <v>135.6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>15.8</v>
+      </c>
+      <c r="K60">
+        <v>3.16</v>
+      </c>
+      <c r="L60">
+        <v>12.64</v>
+      </c>
+      <c r="M60">
+        <v>2.2362248</v>
+      </c>
+      <c r="N60">
+        <v>10.4037752</v>
+      </c>
+      <c r="O60">
+        <v>2.6009438</v>
+      </c>
+      <c r="P60">
+        <v>7.802831400000001</v>
+      </c>
+      <c r="Q60">
+        <v>10.9628314</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2037480910090128</v>
+      </c>
+      <c r="T60">
+        <v>1.764569402784863</v>
+      </c>
+      <c r="U60">
+        <v>0.0226</v>
+      </c>
+      <c r="V60">
+        <v>0.25</v>
+      </c>
+      <c r="W60">
+        <v>0.01695</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>5.652383427641086</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.09524290232254623</v>
+      </c>
+      <c r="C61">
+        <v>97.08908931973019</v>
+      </c>
+      <c r="D61">
+        <v>176.8430893197302</v>
+      </c>
+      <c r="E61">
+        <v>65.654</v>
+      </c>
+      <c r="F61">
+        <v>100.654</v>
+      </c>
+      <c r="G61">
+        <v>20.9</v>
+      </c>
+      <c r="H61">
+        <v>135.6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>15.8</v>
+      </c>
+      <c r="K61">
+        <v>3.16</v>
+      </c>
+      <c r="L61">
+        <v>12.64</v>
+      </c>
+      <c r="M61">
+        <v>2.2747804</v>
+      </c>
+      <c r="N61">
+        <v>10.3652196</v>
+      </c>
+      <c r="O61">
+        <v>2.5913049</v>
+      </c>
+      <c r="P61">
+        <v>7.773914700000001</v>
+      </c>
+      <c r="Q61">
+        <v>10.9339147</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2079082983476737</v>
+      </c>
+      <c r="T61">
+        <v>1.802322278325831</v>
+      </c>
+      <c r="U61">
+        <v>0.0226</v>
+      </c>
+      <c r="V61">
+        <v>0.25</v>
+      </c>
+      <c r="W61">
+        <v>0.01695</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>5.556580318698018</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.0950806064213071</v>
+      </c>
+      <c r="C62">
+        <v>95.71767437055267</v>
+      </c>
+      <c r="D62">
+        <v>177.1776743705527</v>
+      </c>
+      <c r="E62">
+        <v>67.36</v>
+      </c>
+      <c r="F62">
+        <v>102.36</v>
+      </c>
+      <c r="G62">
+        <v>20.9</v>
+      </c>
+      <c r="H62">
+        <v>135.6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>15.8</v>
+      </c>
+      <c r="K62">
+        <v>3.16</v>
+      </c>
+      <c r="L62">
+        <v>12.64</v>
+      </c>
+      <c r="M62">
+        <v>2.313336</v>
+      </c>
+      <c r="N62">
+        <v>10.326664</v>
+      </c>
+      <c r="O62">
+        <v>2.581666</v>
+      </c>
+      <c r="P62">
+        <v>7.744998000000001</v>
+      </c>
+      <c r="Q62">
+        <v>10.904998</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2122765160532677</v>
+      </c>
+      <c r="T62">
+        <v>1.841962797643848</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.25</v>
+      </c>
+      <c r="W62">
+        <v>0.01695</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>5.463970646719716</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.09491831052006797</v>
+      </c>
+      <c r="C63">
+        <v>94.34752788327391</v>
+      </c>
+      <c r="D63">
+        <v>177.5135278832739</v>
+      </c>
+      <c r="E63">
+        <v>69.06599999999999</v>
+      </c>
+      <c r="F63">
+        <v>104.066</v>
+      </c>
+      <c r="G63">
+        <v>20.9</v>
+      </c>
+      <c r="H63">
+        <v>135.6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>15.8</v>
+      </c>
+      <c r="K63">
+        <v>3.16</v>
+      </c>
+      <c r="L63">
+        <v>12.64</v>
+      </c>
+      <c r="M63">
+        <v>2.3518916</v>
+      </c>
+      <c r="N63">
+        <v>10.2881084</v>
+      </c>
+      <c r="O63">
+        <v>2.5720271</v>
+      </c>
+      <c r="P63">
+        <v>7.716081300000001</v>
+      </c>
+      <c r="Q63">
+        <v>10.8760813</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2168687449232512</v>
+      </c>
+      <c r="T63">
+        <v>1.883636164106379</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.25</v>
+      </c>
+      <c r="W63">
+        <v>0.01695</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>5.374397357429229</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.09475601461882882</v>
+      </c>
+      <c r="C64">
+        <v>92.97865708498617</v>
+      </c>
+      <c r="D64">
+        <v>177.8506570849862</v>
+      </c>
+      <c r="E64">
+        <v>70.77199999999999</v>
+      </c>
+      <c r="F64">
+        <v>105.772</v>
+      </c>
+      <c r="G64">
+        <v>20.9</v>
+      </c>
+      <c r="H64">
+        <v>135.6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>15.8</v>
+      </c>
+      <c r="K64">
+        <v>3.16</v>
+      </c>
+      <c r="L64">
+        <v>12.64</v>
+      </c>
+      <c r="M64">
+        <v>2.3904472</v>
+      </c>
+      <c r="N64">
+        <v>10.2495528</v>
+      </c>
+      <c r="O64">
+        <v>2.5623882</v>
+      </c>
+      <c r="P64">
+        <v>7.6871646</v>
+      </c>
+      <c r="Q64">
+        <v>10.8471646</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2217026700495495</v>
+      </c>
+      <c r="T64">
+        <v>1.927502865645885</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.25</v>
+      </c>
+      <c r="W64">
+        <v>0.01695</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.287713529083597</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.09459371871758968</v>
+      </c>
+      <c r="C65">
+        <v>91.61106925778815</v>
+      </c>
+      <c r="D65">
+        <v>178.1890692577881</v>
+      </c>
+      <c r="E65">
+        <v>72.47799999999999</v>
+      </c>
+      <c r="F65">
+        <v>107.478</v>
+      </c>
+      <c r="G65">
+        <v>20.9</v>
+      </c>
+      <c r="H65">
+        <v>135.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>15.8</v>
+      </c>
+      <c r="K65">
+        <v>3.16</v>
+      </c>
+      <c r="L65">
+        <v>12.64</v>
+      </c>
+      <c r="M65">
+        <v>2.4290028</v>
+      </c>
+      <c r="N65">
+        <v>10.2109972</v>
+      </c>
+      <c r="O65">
+        <v>2.5527493</v>
+      </c>
+      <c r="P65">
+        <v>7.658247900000001</v>
+      </c>
+      <c r="Q65">
+        <v>10.8182479</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2267978884259181</v>
+      </c>
+      <c r="T65">
+        <v>1.97374074024158</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.25</v>
+      </c>
+      <c r="W65">
+        <v>0.01695</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.203781568304493</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.09443142281635054</v>
+      </c>
+      <c r="C66">
+        <v>90.24477173930947</v>
+      </c>
+      <c r="D66">
+        <v>178.5287717393095</v>
+      </c>
+      <c r="E66">
+        <v>74.184</v>
+      </c>
+      <c r="F66">
+        <v>109.184</v>
+      </c>
+      <c r="G66">
+        <v>20.9</v>
+      </c>
+      <c r="H66">
+        <v>135.6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>15.8</v>
+      </c>
+      <c r="K66">
+        <v>3.16</v>
+      </c>
+      <c r="L66">
+        <v>12.64</v>
+      </c>
+      <c r="M66">
+        <v>2.4675584</v>
+      </c>
+      <c r="N66">
+        <v>10.1724416</v>
+      </c>
+      <c r="O66">
+        <v>2.5431104</v>
+      </c>
+      <c r="P66">
+        <v>7.629331200000001</v>
+      </c>
+      <c r="Q66">
+        <v>10.7893312</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2321761744898626</v>
+      </c>
+      <c r="T66">
+        <v>2.022547385648148</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.25</v>
+      </c>
+      <c r="W66">
+        <v>0.01695</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.122472481299734</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.0942691269151114</v>
+      </c>
+      <c r="C67">
+        <v>88.87977192324094</v>
+      </c>
+      <c r="D67">
+        <v>178.8697719232409</v>
+      </c>
+      <c r="E67">
+        <v>75.89</v>
+      </c>
+      <c r="F67">
+        <v>110.89</v>
+      </c>
+      <c r="G67">
+        <v>20.9</v>
+      </c>
+      <c r="H67">
+        <v>135.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15.8</v>
+      </c>
+      <c r="K67">
+        <v>3.16</v>
+      </c>
+      <c r="L67">
+        <v>12.64</v>
+      </c>
+      <c r="M67">
+        <v>2.506114</v>
+      </c>
+      <c r="N67">
+        <v>10.133886</v>
+      </c>
+      <c r="O67">
+        <v>2.5334715</v>
+      </c>
+      <c r="P67">
+        <v>7.6004145</v>
+      </c>
+      <c r="Q67">
+        <v>10.7604145</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2378617911860326</v>
+      </c>
+      <c r="T67">
+        <v>2.074142982220804</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.25</v>
+      </c>
+      <c r="W67">
+        <v>0.01695</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.043665212356661</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.09410683101387227</v>
+      </c>
+      <c r="C68">
+        <v>87.51607725987085</v>
+      </c>
+      <c r="D68">
+        <v>179.2120772598709</v>
+      </c>
+      <c r="E68">
+        <v>77.596</v>
+      </c>
+      <c r="F68">
+        <v>112.596</v>
+      </c>
+      <c r="G68">
+        <v>20.9</v>
+      </c>
+      <c r="H68">
+        <v>135.6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15.8</v>
+      </c>
+      <c r="K68">
+        <v>3.16</v>
+      </c>
+      <c r="L68">
+        <v>12.64</v>
+      </c>
+      <c r="M68">
+        <v>2.5446696</v>
+      </c>
+      <c r="N68">
+        <v>10.0953304</v>
+      </c>
+      <c r="O68">
+        <v>2.5238326</v>
+      </c>
+      <c r="P68">
+        <v>7.571497800000001</v>
+      </c>
+      <c r="Q68">
+        <v>10.7314978</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2438818559231537</v>
+      </c>
+      <c r="T68">
+        <v>2.12877361388597</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.25</v>
+      </c>
+      <c r="W68">
+        <v>0.01695</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>4.967246042472469</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.09394453511263312</v>
+      </c>
+      <c r="C69">
+        <v>86.15369525662784</v>
+      </c>
+      <c r="D69">
+        <v>179.5556952566278</v>
+      </c>
+      <c r="E69">
+        <v>79.30200000000001</v>
+      </c>
+      <c r="F69">
+        <v>114.302</v>
+      </c>
+      <c r="G69">
+        <v>20.9</v>
+      </c>
+      <c r="H69">
+        <v>135.6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15.8</v>
+      </c>
+      <c r="K69">
+        <v>3.16</v>
+      </c>
+      <c r="L69">
+        <v>12.64</v>
+      </c>
+      <c r="M69">
+        <v>2.5832252</v>
+      </c>
+      <c r="N69">
+        <v>10.0567748</v>
+      </c>
+      <c r="O69">
+        <v>2.5141937</v>
+      </c>
+      <c r="P69">
+        <v>7.542581100000001</v>
+      </c>
+      <c r="Q69">
+        <v>10.7025811</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2502667730685852</v>
+      </c>
+      <c r="T69">
+        <v>2.186715192924783</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.25</v>
+      </c>
+      <c r="W69">
+        <v>0.01695</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>4.893108041838552</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.09378223921139398</v>
+      </c>
+      <c r="C70">
+        <v>84.79263347862951</v>
+      </c>
+      <c r="D70">
+        <v>179.9006334786295</v>
+      </c>
+      <c r="E70">
+        <v>81.00800000000001</v>
+      </c>
+      <c r="F70">
+        <v>116.008</v>
+      </c>
+      <c r="G70">
+        <v>20.9</v>
+      </c>
+      <c r="H70">
+        <v>135.6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15.8</v>
+      </c>
+      <c r="K70">
+        <v>3.16</v>
+      </c>
+      <c r="L70">
+        <v>12.64</v>
+      </c>
+      <c r="M70">
+        <v>2.6217808</v>
+      </c>
+      <c r="N70">
+        <v>10.0182192</v>
+      </c>
+      <c r="O70">
+        <v>2.5045548</v>
+      </c>
+      <c r="P70">
+        <v>7.513664400000001</v>
+      </c>
+      <c r="Q70">
+        <v>10.6736644</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2570507475356062</v>
+      </c>
+      <c r="T70">
+        <v>2.248278120653521</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.25</v>
+      </c>
+      <c r="W70">
+        <v>0.01695</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>4.821150570635043</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.09361994331015484</v>
+      </c>
+      <c r="C71">
+        <v>83.43289954923758</v>
+      </c>
+      <c r="D71">
+        <v>180.2468995492376</v>
+      </c>
+      <c r="E71">
+        <v>82.71400000000001</v>
+      </c>
+      <c r="F71">
+        <v>117.714</v>
+      </c>
+      <c r="G71">
+        <v>20.9</v>
+      </c>
+      <c r="H71">
+        <v>135.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15.8</v>
+      </c>
+      <c r="K71">
+        <v>3.16</v>
+      </c>
+      <c r="L71">
+        <v>12.64</v>
+      </c>
+      <c r="M71">
+        <v>2.6603364</v>
+      </c>
+      <c r="N71">
+        <v>9.9796636</v>
+      </c>
+      <c r="O71">
+        <v>2.4949159</v>
+      </c>
+      <c r="P71">
+        <v>7.4847477</v>
+      </c>
+      <c r="Q71">
+        <v>10.6447477</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2642723977746931</v>
+      </c>
+      <c r="T71">
+        <v>2.31381285017121</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.25</v>
+      </c>
+      <c r="W71">
+        <v>0.01695</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>4.751278823234535</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.0934576474089157</v>
+      </c>
+      <c r="C72">
+        <v>82.07450115061989</v>
+      </c>
+      <c r="D72">
+        <v>180.5945011506199</v>
+      </c>
+      <c r="E72">
+        <v>84.42</v>
+      </c>
+      <c r="F72">
+        <v>119.42</v>
+      </c>
+      <c r="G72">
+        <v>20.9</v>
+      </c>
+      <c r="H72">
+        <v>135.6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>15.8</v>
+      </c>
+      <c r="K72">
+        <v>3.16</v>
+      </c>
+      <c r="L72">
+        <v>12.64</v>
+      </c>
+      <c r="M72">
+        <v>2.698892</v>
+      </c>
+      <c r="N72">
+        <v>9.941108</v>
+      </c>
+      <c r="O72">
+        <v>2.485277</v>
+      </c>
+      <c r="P72">
+        <v>7.455831</v>
+      </c>
+      <c r="Q72">
+        <v>10.615831</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2719754913630524</v>
+      </c>
+      <c r="T72">
+        <v>2.383716561656745</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.25</v>
+      </c>
+      <c r="W72">
+        <v>0.01695</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>4.683403411474043</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.09329535150767658</v>
+      </c>
+      <c r="C73">
+        <v>80.71744602431794</v>
+      </c>
+      <c r="D73">
+        <v>180.9434460243179</v>
+      </c>
+      <c r="E73">
+        <v>86.12599999999999</v>
+      </c>
+      <c r="F73">
+        <v>121.126</v>
+      </c>
+      <c r="G73">
+        <v>20.9</v>
+      </c>
+      <c r="H73">
+        <v>135.6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>15.8</v>
+      </c>
+      <c r="K73">
+        <v>3.16</v>
+      </c>
+      <c r="L73">
+        <v>12.64</v>
+      </c>
+      <c r="M73">
+        <v>2.737447599999999</v>
+      </c>
+      <c r="N73">
+        <v>9.902552400000001</v>
+      </c>
+      <c r="O73">
+        <v>2.4756381</v>
+      </c>
+      <c r="P73">
+        <v>7.426914300000001</v>
+      </c>
+      <c r="Q73">
+        <v>10.5869143</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2802098327850916</v>
+      </c>
+      <c r="T73">
+        <v>2.458441218761972</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.25</v>
+      </c>
+      <c r="W73">
+        <v>0.01695</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>4.617439983143423</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.09313305560643742</v>
+      </c>
+      <c r="C74">
+        <v>79.36174197182223</v>
+      </c>
+      <c r="D74">
+        <v>181.2937419718222</v>
+      </c>
+      <c r="E74">
+        <v>87.83199999999999</v>
+      </c>
+      <c r="F74">
+        <v>122.832</v>
+      </c>
+      <c r="G74">
+        <v>20.9</v>
+      </c>
+      <c r="H74">
+        <v>135.6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>15.8</v>
+      </c>
+      <c r="K74">
+        <v>3.16</v>
+      </c>
+      <c r="L74">
+        <v>12.64</v>
+      </c>
+      <c r="M74">
+        <v>2.7760032</v>
+      </c>
+      <c r="N74">
+        <v>9.863996800000001</v>
+      </c>
+      <c r="O74">
+        <v>2.4659992</v>
+      </c>
+      <c r="P74">
+        <v>7.3979976</v>
+      </c>
+      <c r="Q74">
+        <v>10.5579976</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2890323414515622</v>
+      </c>
+      <c r="T74">
+        <v>2.538503351374715</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.25</v>
+      </c>
+      <c r="W74">
+        <v>0.01695</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>4.55330887226643</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1428446351783043</v>
+      </c>
+      <c r="C75">
+        <v>10.16970430448582</v>
+      </c>
+      <c r="D75">
+        <v>113.8077043044858</v>
+      </c>
+      <c r="E75">
+        <v>89.538</v>
+      </c>
+      <c r="F75">
+        <v>124.538</v>
+      </c>
+      <c r="G75">
+        <v>20.9</v>
+      </c>
+      <c r="H75">
+        <v>135.6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>15.8</v>
+      </c>
+      <c r="K75">
+        <v>3.16</v>
+      </c>
+      <c r="L75">
+        <v>12.64</v>
+      </c>
+      <c r="M75">
+        <v>13.574642</v>
+      </c>
+      <c r="N75">
+        <v>-0.9346419999999984</v>
+      </c>
+      <c r="O75">
+        <v>-0.2336604999999996</v>
+      </c>
+      <c r="P75">
+        <v>-0.7009814999999988</v>
+      </c>
+      <c r="Q75">
+        <v>2.459018500000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3029536876692003</v>
+      </c>
+      <c r="T75">
+        <v>2.664836201719234</v>
+      </c>
+      <c r="U75">
+        <v>0.109</v>
+      </c>
+      <c r="V75">
+        <v>0.2327869862056031</v>
+      </c>
+      <c r="W75">
+        <v>0.08362621850358926</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.9311479448224124</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1438416351783043</v>
+      </c>
+      <c r="C76">
+        <v>7.620349895709694</v>
+      </c>
+      <c r="D76">
+        <v>112.9643498957097</v>
+      </c>
+      <c r="E76">
+        <v>91.244</v>
+      </c>
+      <c r="F76">
+        <v>126.244</v>
+      </c>
+      <c r="G76">
+        <v>20.9</v>
+      </c>
+      <c r="H76">
+        <v>135.6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>15.8</v>
+      </c>
+      <c r="K76">
+        <v>3.16</v>
+      </c>
+      <c r="L76">
+        <v>12.64</v>
+      </c>
+      <c r="M76">
+        <v>13.760596</v>
+      </c>
+      <c r="N76">
+        <v>-1.120595999999999</v>
+      </c>
+      <c r="O76">
+        <v>-0.2801489999999998</v>
+      </c>
+      <c r="P76">
+        <v>-0.8404469999999993</v>
+      </c>
+      <c r="Q76">
+        <v>2.319553000000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3142480602718619</v>
+      </c>
+      <c r="T76">
+        <v>2.767329901785359</v>
+      </c>
+      <c r="U76">
+        <v>0.109</v>
+      </c>
+      <c r="V76">
+        <v>0.2296412161217436</v>
+      </c>
+      <c r="W76">
+        <v>0.08396910744272995</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.9185648644869743</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1448386351783043</v>
+      </c>
+      <c r="C77">
+        <v>5.083402640723278</v>
+      </c>
+      <c r="D77">
+        <v>112.1334026407233</v>
+      </c>
+      <c r="E77">
+        <v>92.94999999999999</v>
+      </c>
+      <c r="F77">
+        <v>127.95</v>
+      </c>
+      <c r="G77">
+        <v>20.9</v>
+      </c>
+      <c r="H77">
+        <v>135.6</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>15.8</v>
+      </c>
+      <c r="K77">
+        <v>3.16</v>
+      </c>
+      <c r="L77">
+        <v>12.64</v>
+      </c>
+      <c r="M77">
+        <v>13.94655</v>
+      </c>
+      <c r="N77">
+        <v>-1.306549999999998</v>
+      </c>
+      <c r="O77">
+        <v>-0.3266374999999995</v>
+      </c>
+      <c r="P77">
+        <v>-0.9799124999999984</v>
+      </c>
+      <c r="Q77">
+        <v>2.180087500000002</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3264459826827364</v>
+      </c>
+      <c r="T77">
+        <v>2.878023097856774</v>
+      </c>
+      <c r="U77">
+        <v>0.109</v>
+      </c>
+      <c r="V77">
+        <v>0.2265793332401204</v>
+      </c>
+      <c r="W77">
+        <v>0.08430285267682688</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.9063173329604814</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1458356351783043</v>
+      </c>
+      <c r="C78">
+        <v>2.558590743837811</v>
+      </c>
+      <c r="D78">
+        <v>111.3145907438378</v>
+      </c>
+      <c r="E78">
+        <v>94.65600000000001</v>
+      </c>
+      <c r="F78">
+        <v>129.656</v>
+      </c>
+      <c r="G78">
+        <v>20.9</v>
+      </c>
+      <c r="H78">
+        <v>135.6</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>15.8</v>
+      </c>
+      <c r="K78">
+        <v>3.16</v>
+      </c>
+      <c r="L78">
+        <v>12.64</v>
+      </c>
+      <c r="M78">
+        <v>14.132504</v>
+      </c>
+      <c r="N78">
+        <v>-1.492504</v>
+      </c>
+      <c r="O78">
+        <v>-0.3731260000000001</v>
+      </c>
+      <c r="P78">
+        <v>-1.119378</v>
+      </c>
+      <c r="Q78">
+        <v>2.040622</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3396603986278505</v>
+      </c>
+      <c r="T78">
+        <v>2.997940726934139</v>
+      </c>
+      <c r="U78">
+        <v>0.109</v>
+      </c>
+      <c r="V78">
+        <v>0.223598026223803</v>
+      </c>
+      <c r="W78">
+        <v>0.08462781514160547</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.8943921048952117</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1468326351783043</v>
+      </c>
+      <c r="C79">
+        <v>0.04565029055760306</v>
+      </c>
+      <c r="D79">
+        <v>110.5076502905576</v>
+      </c>
+      <c r="E79">
+        <v>96.36199999999999</v>
+      </c>
+      <c r="F79">
+        <v>131.362</v>
+      </c>
+      <c r="G79">
+        <v>20.9</v>
+      </c>
+      <c r="H79">
+        <v>135.6</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>15.8</v>
+      </c>
+      <c r="K79">
+        <v>3.16</v>
+      </c>
+      <c r="L79">
+        <v>12.64</v>
+      </c>
+      <c r="M79">
+        <v>14.318458</v>
+      </c>
+      <c r="N79">
+        <v>-1.678457999999999</v>
+      </c>
+      <c r="O79">
+        <v>-0.4196144999999998</v>
+      </c>
+      <c r="P79">
+        <v>-1.258843499999999</v>
+      </c>
+      <c r="Q79">
+        <v>1.901156500000001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3540238942203657</v>
+      </c>
+      <c r="T79">
+        <v>3.128285975931276</v>
+      </c>
+      <c r="U79">
+        <v>0.109</v>
+      </c>
+      <c r="V79">
+        <v>0.220694155753364</v>
+      </c>
+      <c r="W79">
+        <v>0.08494433702288333</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.8827766230134558</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1478296351783043</v>
+      </c>
+      <c r="C80">
+        <v>-2.45567503602598</v>
+      </c>
+      <c r="D80">
+        <v>109.712324963974</v>
+      </c>
+      <c r="E80">
+        <v>98.06800000000001</v>
+      </c>
+      <c r="F80">
+        <v>133.068</v>
+      </c>
+      <c r="G80">
+        <v>20.9</v>
+      </c>
+      <c r="H80">
+        <v>135.6</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>15.8</v>
+      </c>
+      <c r="K80">
+        <v>3.16</v>
+      </c>
+      <c r="L80">
+        <v>12.64</v>
+      </c>
+      <c r="M80">
+        <v>14.504412</v>
+      </c>
+      <c r="N80">
+        <v>-1.864412000000002</v>
+      </c>
+      <c r="O80">
+        <v>-0.4661030000000004</v>
+      </c>
+      <c r="P80">
+        <v>-1.398309000000001</v>
+      </c>
+      <c r="Q80">
+        <v>1.761690999999999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3696931621394733</v>
+      </c>
+      <c r="T80">
+        <v>3.270480793019062</v>
+      </c>
+      <c r="U80">
+        <v>0.109</v>
+      </c>
+      <c r="V80">
+        <v>0.2178647435001157</v>
+      </c>
+      <c r="W80">
+        <v>0.08525274295848739</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.8714589740004627</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1488266351783043</v>
+      </c>
+      <c r="C81">
+        <v>-4.945634226680141</v>
+      </c>
+      <c r="D81">
+        <v>108.9283657733199</v>
+      </c>
+      <c r="E81">
+        <v>99.774</v>
+      </c>
+      <c r="F81">
+        <v>134.774</v>
+      </c>
+      <c r="G81">
+        <v>20.9</v>
+      </c>
+      <c r="H81">
+        <v>135.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>15.8</v>
+      </c>
+      <c r="K81">
+        <v>3.16</v>
+      </c>
+      <c r="L81">
+        <v>12.64</v>
+      </c>
+      <c r="M81">
+        <v>14.690366</v>
+      </c>
+      <c r="N81">
+        <v>-2.050366</v>
+      </c>
+      <c r="O81">
+        <v>-0.5125915000000001</v>
+      </c>
+      <c r="P81">
+        <v>-1.5377745</v>
+      </c>
+      <c r="Q81">
+        <v>1.6222255</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.386854741288972</v>
+      </c>
+      <c r="T81">
+        <v>3.426217973639017</v>
+      </c>
+      <c r="U81">
+        <v>0.109</v>
+      </c>
+      <c r="V81">
+        <v>0.2151069619368231</v>
+      </c>
+      <c r="W81">
+        <v>0.08555334114888628</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.8604278477472923</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1498236351783043</v>
+      </c>
+      <c r="C82">
+        <v>-7.424469205921866</v>
+      </c>
+      <c r="D82">
+        <v>108.1555307940781</v>
+      </c>
+      <c r="E82">
+        <v>101.48</v>
+      </c>
+      <c r="F82">
+        <v>136.48</v>
+      </c>
+      <c r="G82">
+        <v>20.9</v>
+      </c>
+      <c r="H82">
+        <v>135.6</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>15.8</v>
+      </c>
+      <c r="K82">
+        <v>3.16</v>
+      </c>
+      <c r="L82">
+        <v>12.64</v>
+      </c>
+      <c r="M82">
+        <v>14.87632</v>
+      </c>
+      <c r="N82">
+        <v>-2.236319999999997</v>
+      </c>
+      <c r="O82">
+        <v>-0.5590799999999994</v>
+      </c>
+      <c r="P82">
+        <v>-1.677239999999998</v>
+      </c>
+      <c r="Q82">
+        <v>1.482760000000002</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4057324783534206</v>
+      </c>
+      <c r="T82">
+        <v>3.597528872320968</v>
+      </c>
+      <c r="U82">
+        <v>0.109</v>
+      </c>
+      <c r="V82">
+        <v>0.2124181249126128</v>
+      </c>
+      <c r="W82">
+        <v>0.08584642438452521</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.8496724996504513</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1508206351783043</v>
+      </c>
+      <c r="C83">
+        <v>-9.892415080923342</v>
+      </c>
+      <c r="D83">
+        <v>107.3935849190767</v>
+      </c>
+      <c r="E83">
+        <v>103.186</v>
+      </c>
+      <c r="F83">
+        <v>138.186</v>
+      </c>
+      <c r="G83">
+        <v>20.9</v>
+      </c>
+      <c r="H83">
+        <v>135.6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>15.8</v>
+      </c>
+      <c r="K83">
+        <v>3.16</v>
+      </c>
+      <c r="L83">
+        <v>12.64</v>
+      </c>
+      <c r="M83">
+        <v>15.062274</v>
+      </c>
+      <c r="N83">
+        <v>-2.422274</v>
+      </c>
+      <c r="O83">
+        <v>-0.6055685</v>
+      </c>
+      <c r="P83">
+        <v>-1.8167055</v>
+      </c>
+      <c r="Q83">
+        <v>1.3432945</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4265973456351796</v>
+      </c>
+      <c r="T83">
+        <v>3.786872497179967</v>
+      </c>
+      <c r="U83">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>0.2097956789260373</v>
+      </c>
+      <c r="W83">
+        <v>0.08613227099706193</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.8391827157041494</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1518176351783043</v>
+      </c>
+      <c r="C84">
+        <v>-12.34970037996973</v>
+      </c>
+      <c r="D84">
+        <v>106.6422996200303</v>
+      </c>
+      <c r="E84">
+        <v>104.892</v>
+      </c>
+      <c r="F84">
+        <v>139.892</v>
+      </c>
+      <c r="G84">
+        <v>20.9</v>
+      </c>
+      <c r="H84">
+        <v>135.6</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>15.8</v>
+      </c>
+      <c r="K84">
+        <v>3.16</v>
+      </c>
+      <c r="L84">
+        <v>12.64</v>
+      </c>
+      <c r="M84">
+        <v>15.248228</v>
+      </c>
+      <c r="N84">
+        <v>-2.608227999999999</v>
+      </c>
+      <c r="O84">
+        <v>-0.6520569999999997</v>
+      </c>
+      <c r="P84">
+        <v>-1.956170999999999</v>
+      </c>
+      <c r="Q84">
+        <v>1.203829000000001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4497805315038007</v>
+      </c>
+      <c r="T84">
+        <v>3.997254302578853</v>
+      </c>
+      <c r="U84">
+        <v>0.109</v>
+      </c>
+      <c r="V84">
+        <v>0.2072371950366954</v>
+      </c>
+      <c r="W84">
+        <v>0.0864111457410002</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.8289487801467817</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1528146351783043</v>
+      </c>
+      <c r="C85">
+        <v>-14.79654728097799</v>
+      </c>
+      <c r="D85">
+        <v>105.901452719022</v>
+      </c>
+      <c r="E85">
+        <v>106.598</v>
+      </c>
+      <c r="F85">
+        <v>141.598</v>
+      </c>
+      <c r="G85">
+        <v>20.9</v>
+      </c>
+      <c r="H85">
+        <v>135.6</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>15.8</v>
+      </c>
+      <c r="K85">
+        <v>3.16</v>
+      </c>
+      <c r="L85">
+        <v>12.64</v>
+      </c>
+      <c r="M85">
+        <v>15.434182</v>
+      </c>
+      <c r="N85">
+        <v>-2.794182000000001</v>
+      </c>
+      <c r="O85">
+        <v>-0.6985455000000003</v>
+      </c>
+      <c r="P85">
+        <v>-2.095636500000001</v>
+      </c>
+      <c r="Q85">
+        <v>1.064363499999999</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4756911510040243</v>
+      </c>
+      <c r="T85">
+        <v>4.232386908612904</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.2047403613615545</v>
+      </c>
+      <c r="W85">
+        <v>0.08668330061159056</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.818961445446218</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1538116351783043</v>
+      </c>
+      <c r="C86">
+        <v>-17.23317183055551</v>
+      </c>
+      <c r="D86">
+        <v>105.1708281694445</v>
+      </c>
+      <c r="E86">
+        <v>108.304</v>
+      </c>
+      <c r="F86">
+        <v>143.304</v>
+      </c>
+      <c r="G86">
+        <v>20.9</v>
+      </c>
+      <c r="H86">
+        <v>135.6</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>15.8</v>
+      </c>
+      <c r="K86">
+        <v>3.16</v>
+      </c>
+      <c r="L86">
+        <v>12.64</v>
+      </c>
+      <c r="M86">
+        <v>15.620136</v>
+      </c>
+      <c r="N86">
+        <v>-2.980136</v>
+      </c>
+      <c r="O86">
+        <v>-0.745034</v>
+      </c>
+      <c r="P86">
+        <v>-2.235102</v>
+      </c>
+      <c r="Q86">
+        <v>0.9248980000000002</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5048405979417756</v>
+      </c>
+      <c r="T86">
+        <v>4.496911090401208</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.2023029761072503</v>
+      </c>
+      <c r="W86">
+        <v>0.08694897560430971</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.8092119044290011</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1849408618725917</v>
+      </c>
+      <c r="C87">
+        <v>-37.57883527110181</v>
+      </c>
+      <c r="D87">
+        <v>86.53116472889819</v>
+      </c>
+      <c r="E87">
+        <v>110.01</v>
+      </c>
+      <c r="F87">
+        <v>145.01</v>
+      </c>
+      <c r="G87">
+        <v>20.9</v>
+      </c>
+      <c r="H87">
+        <v>135.6</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>15.8</v>
+      </c>
+      <c r="K87">
+        <v>3.16</v>
+      </c>
+      <c r="L87">
+        <v>12.64</v>
+      </c>
+      <c r="M87">
+        <v>20.330402</v>
+      </c>
+      <c r="N87">
+        <v>-7.690401999999995</v>
+      </c>
+      <c r="O87">
+        <v>-1.922600499999999</v>
+      </c>
+      <c r="P87">
+        <v>-5.767801499999996</v>
+      </c>
+      <c r="Q87">
+        <v>-2.607801499999996</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5619581490998105</v>
+      </c>
+      <c r="T87">
+        <v>5.015239054499328</v>
+      </c>
+      <c r="U87">
+        <v>0.1402</v>
+      </c>
+      <c r="V87">
+        <v>0.1554322437893752</v>
+      </c>
+      <c r="W87">
+        <v>0.1184083994207296</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.6217289751575008</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1862498618725917</v>
+      </c>
+      <c r="C88">
+        <v>-39.92495611342088</v>
+      </c>
+      <c r="D88">
+        <v>85.8910438865791</v>
+      </c>
+      <c r="E88">
+        <v>111.716</v>
+      </c>
+      <c r="F88">
+        <v>146.716</v>
+      </c>
+      <c r="G88">
+        <v>20.9</v>
+      </c>
+      <c r="H88">
+        <v>135.6</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>15.8</v>
+      </c>
+      <c r="K88">
+        <v>3.16</v>
+      </c>
+      <c r="L88">
+        <v>12.64</v>
+      </c>
+      <c r="M88">
+        <v>20.5695832</v>
+      </c>
+      <c r="N88">
+        <v>-7.929583199999996</v>
+      </c>
+      <c r="O88">
+        <v>-1.982395799999999</v>
+      </c>
+      <c r="P88">
+        <v>-5.947187399999997</v>
+      </c>
+      <c r="Q88">
+        <v>-2.787187399999997</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6014337311783684</v>
+      </c>
+      <c r="T88">
+        <v>5.373470415534994</v>
+      </c>
+      <c r="U88">
+        <v>0.1402</v>
+      </c>
+      <c r="V88">
+        <v>0.1536248921174057</v>
+      </c>
+      <c r="W88">
+        <v>0.1186617901251397</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.6144995684696228</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1875588618725917</v>
+      </c>
+      <c r="C89">
+        <v>-42.26167581658993</v>
+      </c>
+      <c r="D89">
+        <v>85.26032418341006</v>
+      </c>
+      <c r="E89">
+        <v>113.422</v>
+      </c>
+      <c r="F89">
+        <v>148.422</v>
+      </c>
+      <c r="G89">
+        <v>20.9</v>
+      </c>
+      <c r="H89">
+        <v>135.6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>15.8</v>
+      </c>
+      <c r="K89">
+        <v>3.16</v>
+      </c>
+      <c r="L89">
+        <v>12.64</v>
+      </c>
+      <c r="M89">
+        <v>20.8087644</v>
+      </c>
+      <c r="N89">
+        <v>-8.168764399999997</v>
+      </c>
+      <c r="O89">
+        <v>-2.042191099999999</v>
+      </c>
+      <c r="P89">
+        <v>-6.126573299999998</v>
+      </c>
+      <c r="Q89">
+        <v>-2.966573299999998</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6469824797305506</v>
+      </c>
+      <c r="T89">
+        <v>5.78681429365307</v>
+      </c>
+      <c r="U89">
+        <v>0.1402</v>
+      </c>
+      <c r="V89">
+        <v>0.1518590887597344</v>
+      </c>
+      <c r="W89">
+        <v>0.1189093557558852</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.6074363550389374</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1888678618725917</v>
+      </c>
+      <c r="C90">
+        <v>-44.58919997571408</v>
+      </c>
+      <c r="D90">
+        <v>84.63880002428591</v>
+      </c>
+      <c r="E90">
+        <v>115.128</v>
+      </c>
+      <c r="F90">
+        <v>150.128</v>
+      </c>
+      <c r="G90">
+        <v>20.9</v>
+      </c>
+      <c r="H90">
+        <v>135.6</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>15.8</v>
+      </c>
+      <c r="K90">
+        <v>3.16</v>
+      </c>
+      <c r="L90">
+        <v>12.64</v>
+      </c>
+      <c r="M90">
+        <v>21.0479456</v>
+      </c>
+      <c r="N90">
+        <v>-8.407945599999998</v>
+      </c>
+      <c r="O90">
+        <v>-2.101986399999999</v>
+      </c>
+      <c r="P90">
+        <v>-6.305959199999998</v>
+      </c>
+      <c r="Q90">
+        <v>-3.145959199999998</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.7001226863747633</v>
+      </c>
+      <c r="T90">
+        <v>6.269048818124161</v>
+      </c>
+      <c r="U90">
+        <v>0.1402</v>
+      </c>
+      <c r="V90">
+        <v>0.1501334172965555</v>
+      </c>
+      <c r="W90">
+        <v>0.1191512948950229</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.6005336691862222</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1901768618725917</v>
+      </c>
+      <c r="C91">
+        <v>-46.90772823435799</v>
+      </c>
+      <c r="D91">
+        <v>84.02627176564202</v>
+      </c>
+      <c r="E91">
+        <v>116.834</v>
+      </c>
+      <c r="F91">
+        <v>151.834</v>
+      </c>
+      <c r="G91">
+        <v>20.9</v>
+      </c>
+      <c r="H91">
+        <v>135.6</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>15.8</v>
+      </c>
+      <c r="K91">
+        <v>3.16</v>
+      </c>
+      <c r="L91">
+        <v>12.64</v>
+      </c>
+      <c r="M91">
+        <v>21.2871268</v>
+      </c>
+      <c r="N91">
+        <v>-8.647126799999999</v>
+      </c>
+      <c r="O91">
+        <v>-2.1617817</v>
+      </c>
+      <c r="P91">
+        <v>-6.485345099999999</v>
+      </c>
+      <c r="Q91">
+        <v>-3.325345099999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.762924748772469</v>
+      </c>
+      <c r="T91">
+        <v>6.838962347044539</v>
+      </c>
+      <c r="U91">
+        <v>0.1402</v>
+      </c>
+      <c r="V91">
+        <v>0.1484465249673808</v>
+      </c>
+      <c r="W91">
+        <v>0.1193877971995732</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.593786099869523</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1914858618725918</v>
+      </c>
+      <c r="C92">
+        <v>-49.21745449835393</v>
+      </c>
+      <c r="D92">
+        <v>83.42254550164606</v>
+      </c>
+      <c r="E92">
+        <v>118.54</v>
+      </c>
+      <c r="F92">
+        <v>153.54</v>
+      </c>
+      <c r="G92">
+        <v>20.9</v>
+      </c>
+      <c r="H92">
+        <v>135.6</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>15.8</v>
+      </c>
+      <c r="K92">
+        <v>3.16</v>
+      </c>
+      <c r="L92">
+        <v>12.64</v>
+      </c>
+      <c r="M92">
+        <v>21.526308</v>
+      </c>
+      <c r="N92">
+        <v>-8.886307999999996</v>
+      </c>
+      <c r="O92">
+        <v>-2.221576999999999</v>
+      </c>
+      <c r="P92">
+        <v>-6.664730999999997</v>
+      </c>
+      <c r="Q92">
+        <v>-3.504730999999997</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8382872236497161</v>
+      </c>
+      <c r="T92">
+        <v>7.522858581748995</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.1467971191344099</v>
+      </c>
+      <c r="W92">
+        <v>0.1196190438973557</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.5871884765376396</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1927948618725918</v>
+      </c>
+      <c r="C93">
+        <v>-51.51856714045877</v>
+      </c>
+      <c r="D93">
+        <v>82.82743285954125</v>
+      </c>
+      <c r="E93">
+        <v>120.246</v>
+      </c>
+      <c r="F93">
+        <v>155.246</v>
+      </c>
+      <c r="G93">
+        <v>20.9</v>
+      </c>
+      <c r="H93">
+        <v>135.6</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>15.8</v>
+      </c>
+      <c r="K93">
+        <v>3.16</v>
+      </c>
+      <c r="L93">
+        <v>12.64</v>
+      </c>
+      <c r="M93">
+        <v>21.7654892</v>
+      </c>
+      <c r="N93">
+        <v>-9.125489200000001</v>
+      </c>
+      <c r="O93">
+        <v>-2.2813723</v>
+      </c>
+      <c r="P93">
+        <v>-6.8441169</v>
+      </c>
+      <c r="Q93">
+        <v>-3.6841169</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.9303969151663513</v>
+      </c>
+      <c r="T93">
+        <v>8.358731757498884</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.1451839639790867</v>
+      </c>
+      <c r="W93">
+        <v>0.119845208250132</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.5807358559163467</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1941038618725918</v>
+      </c>
+      <c r="C94">
+        <v>-53.81124919631259</v>
+      </c>
+      <c r="D94">
+        <v>82.2407508036874</v>
+      </c>
+      <c r="E94">
+        <v>121.952</v>
+      </c>
+      <c r="F94">
+        <v>156.952</v>
+      </c>
+      <c r="G94">
+        <v>20.9</v>
+      </c>
+      <c r="H94">
+        <v>135.6</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>15.8</v>
+      </c>
+      <c r="K94">
+        <v>3.16</v>
+      </c>
+      <c r="L94">
+        <v>12.64</v>
+      </c>
+      <c r="M94">
+        <v>22.0046704</v>
+      </c>
+      <c r="N94">
+        <v>-9.364670399999998</v>
+      </c>
+      <c r="O94">
+        <v>-2.341167599999999</v>
+      </c>
+      <c r="P94">
+        <v>-7.023502799999998</v>
+      </c>
+      <c r="Q94">
+        <v>-3.863502799999998</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.045534029562146</v>
+      </c>
+      <c r="T94">
+        <v>9.403573227186246</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.1436058774140966</v>
+      </c>
+      <c r="W94">
+        <v>0.1200664559865437</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.5744235096563864</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1954128618725918</v>
+      </c>
+      <c r="C95">
+        <v>-56.09567855212856</v>
+      </c>
+      <c r="D95">
+        <v>81.66232144787146</v>
+      </c>
+      <c r="E95">
+        <v>123.658</v>
+      </c>
+      <c r="F95">
+        <v>158.658</v>
+      </c>
+      <c r="G95">
+        <v>20.9</v>
+      </c>
+      <c r="H95">
+        <v>135.6</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>15.8</v>
+      </c>
+      <c r="K95">
+        <v>3.16</v>
+      </c>
+      <c r="L95">
+        <v>12.64</v>
+      </c>
+      <c r="M95">
+        <v>22.2438516</v>
+      </c>
+      <c r="N95">
+        <v>-9.603851599999999</v>
+      </c>
+      <c r="O95">
+        <v>-2.4009629</v>
+      </c>
+      <c r="P95">
+        <v>-7.202888699999999</v>
+      </c>
+      <c r="Q95">
+        <v>-4.042888699999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.193567462356738</v>
+      </c>
+      <c r="T95">
+        <v>10.74694083107</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.1420617281945902</v>
+      </c>
+      <c r="W95">
+        <v>0.1202829457071184</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.5682469127783607</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1967218618725917</v>
+      </c>
+      <c r="C96">
+        <v>-58.3720281245169</v>
+      </c>
+      <c r="D96">
+        <v>81.09197187548311</v>
+      </c>
+      <c r="E96">
+        <v>125.364</v>
+      </c>
+      <c r="F96">
+        <v>160.364</v>
+      </c>
+      <c r="G96">
+        <v>20.9</v>
+      </c>
+      <c r="H96">
+        <v>135.6</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>15.8</v>
+      </c>
+      <c r="K96">
+        <v>3.16</v>
+      </c>
+      <c r="L96">
+        <v>12.64</v>
+      </c>
+      <c r="M96">
+        <v>22.4830328</v>
+      </c>
+      <c r="N96">
+        <v>-9.8430328</v>
+      </c>
+      <c r="O96">
+        <v>-2.4607582</v>
+      </c>
+      <c r="P96">
+        <v>-7.3822746</v>
+      </c>
+      <c r="Q96">
+        <v>-4.2222746</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.390945372749528</v>
+      </c>
+      <c r="T96">
+        <v>12.53809763624833</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.1405504332137967</v>
+      </c>
+      <c r="W96">
+        <v>0.1204948292634257</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.5622017328551867</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1980308618725918</v>
+      </c>
+      <c r="C97">
+        <v>-60.64046603282608</v>
+      </c>
+      <c r="D97">
+        <v>80.5295339671739</v>
+      </c>
+      <c r="E97">
+        <v>127.07</v>
+      </c>
+      <c r="F97">
+        <v>162.07</v>
+      </c>
+      <c r="G97">
+        <v>20.9</v>
+      </c>
+      <c r="H97">
+        <v>135.6</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>15.8</v>
+      </c>
+      <c r="K97">
+        <v>3.16</v>
+      </c>
+      <c r="L97">
+        <v>12.64</v>
+      </c>
+      <c r="M97">
+        <v>22.722214</v>
+      </c>
+      <c r="N97">
+        <v>-10.082214</v>
+      </c>
+      <c r="O97">
+        <v>-2.520553499999999</v>
+      </c>
+      <c r="P97">
+        <v>-7.561660499999998</v>
+      </c>
+      <c r="Q97">
+        <v>-4.401660499999998</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.667274447299434</v>
+      </c>
+      <c r="T97">
+        <v>15.04571716349801</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.1390709549694409</v>
+      </c>
+      <c r="W97">
+        <v>0.1207022521132844</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.5562838198777638</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1993398618725917</v>
+      </c>
+      <c r="C98">
+        <v>-62.90115576436091</v>
+      </c>
+      <c r="D98">
+        <v>79.97484423563908</v>
+      </c>
+      <c r="E98">
+        <v>128.776</v>
+      </c>
+      <c r="F98">
+        <v>163.776</v>
+      </c>
+      <c r="G98">
+        <v>20.9</v>
+      </c>
+      <c r="H98">
+        <v>135.6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>15.8</v>
+      </c>
+      <c r="K98">
+        <v>3.16</v>
+      </c>
+      <c r="L98">
+        <v>12.64</v>
+      </c>
+      <c r="M98">
+        <v>22.96139519999999</v>
+      </c>
+      <c r="N98">
+        <v>-10.32139519999999</v>
+      </c>
+      <c r="O98">
+        <v>-2.580348799999999</v>
+      </c>
+      <c r="P98">
+        <v>-7.741046399999996</v>
+      </c>
+      <c r="Q98">
+        <v>-4.581046399999996</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.081768059124288</v>
+      </c>
+      <c r="T98">
+        <v>18.80714645437246</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.1376222991885093</v>
+      </c>
+      <c r="W98">
+        <v>0.120905353653771</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.5504891967540371</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2006488618725918</v>
+      </c>
+      <c r="C99">
+        <v>-65.15425633281981</v>
+      </c>
+      <c r="D99">
+        <v>79.42774366718018</v>
+      </c>
+      <c r="E99">
+        <v>130.482</v>
+      </c>
+      <c r="F99">
+        <v>165.482</v>
+      </c>
+      <c r="G99">
+        <v>20.9</v>
+      </c>
+      <c r="H99">
+        <v>135.6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>15.8</v>
+      </c>
+      <c r="K99">
+        <v>3.16</v>
+      </c>
+      <c r="L99">
+        <v>12.64</v>
+      </c>
+      <c r="M99">
+        <v>23.2005764</v>
+      </c>
+      <c r="N99">
+        <v>-10.5605764</v>
+      </c>
+      <c r="O99">
+        <v>-2.6401441</v>
+      </c>
+      <c r="P99">
+        <v>-7.920432299999999</v>
+      </c>
+      <c r="Q99">
+        <v>-4.760432299999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.772590745499051</v>
+      </c>
+      <c r="T99">
+        <v>25.07619527249662</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.136203512598937</v>
+      </c>
+      <c r="W99">
+        <v>0.121104267533629</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.5448140503957479</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2019578618725917</v>
+      </c>
+      <c r="C100">
+        <v>-67.39992243027237</v>
+      </c>
+      <c r="D100">
+        <v>78.88807756972763</v>
+      </c>
+      <c r="E100">
+        <v>132.188</v>
+      </c>
+      <c r="F100">
+        <v>167.188</v>
+      </c>
+      <c r="G100">
+        <v>20.9</v>
+      </c>
+      <c r="H100">
+        <v>135.6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>15.8</v>
+      </c>
+      <c r="K100">
+        <v>3.16</v>
+      </c>
+      <c r="L100">
+        <v>12.64</v>
+      </c>
+      <c r="M100">
+        <v>23.4397576</v>
+      </c>
+      <c r="N100">
+        <v>-10.7997576</v>
+      </c>
+      <c r="O100">
+        <v>-2.699939399999999</v>
+      </c>
+      <c r="P100">
+        <v>-8.099818199999998</v>
+      </c>
+      <c r="Q100">
+        <v>-4.939818199999998</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.154236118248575</v>
+      </c>
+      <c r="T100">
+        <v>37.61429290874493</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.1348136808377234</v>
+      </c>
+      <c r="W100">
+        <v>0.1212991219465512</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.5392547233508935</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2032668618725917</v>
+      </c>
+      <c r="C101">
+        <v>-69.63830457298397</v>
+      </c>
+      <c r="D101">
+        <v>78.35569542701603</v>
+      </c>
+      <c r="E101">
+        <v>133.894</v>
+      </c>
+      <c r="F101">
+        <v>168.894</v>
+      </c>
+      <c r="G101">
+        <v>20.9</v>
+      </c>
+      <c r="H101">
+        <v>135.6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>15.8</v>
+      </c>
+      <c r="K101">
+        <v>3.16</v>
+      </c>
+      <c r="L101">
+        <v>12.64</v>
+      </c>
+      <c r="M101">
+        <v>23.6789388</v>
+      </c>
+      <c r="N101">
+        <v>-11.0389388</v>
+      </c>
+      <c r="O101">
+        <v>-2.7597347</v>
+      </c>
+      <c r="P101">
+        <v>-8.279204100000001</v>
+      </c>
+      <c r="Q101">
+        <v>-5.119204100000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.299172236497151</v>
+      </c>
+      <c r="T101">
+        <v>75.22858581748986</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1334519264858272</v>
+      </c>
+      <c r="W101">
+        <v>0.121490039906687</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5338077059433086</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
